--- a/resources/template-report-gap.xlsx
+++ b/resources/template-report-gap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Source\Python-Admin-Est\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9C04B0-8D51-4979-96F6-18952DBDA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083280AC-2A09-4FA4-AA4A-6BDB53EA6A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF183DE9-339E-4879-8A13-4BD602819A83}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -47,22 +47,25 @@
     <t>Assignee</t>
   </si>
   <si>
-    <t>Estimation by user</t>
+    <t>Gap between Standard Estimation &amp; Spent time (hours)</t>
   </si>
   <si>
-    <t>Spent time (hours)</t>
+    <t>Standard Estimation</t>
   </si>
   <si>
-    <t>Standard Estimation (hours)</t>
+    <t>Gap * 100% (EST)</t>
   </si>
   <si>
-    <t>Gap between  Standard Estimation &amp; Estimation (%)</t>
+    <t>Estimated time</t>
   </si>
   <si>
-    <t>Gap between  Standard Estimation &amp; Spent time (%)</t>
+    <t>Spent time</t>
   </si>
   <si>
-    <t>Gap between Standard Estimation &amp; Spent time (hours)</t>
+    <t>Gap * 100% (ST)</t>
+  </si>
+  <si>
+    <t>Gap between Standard Estimation &amp; Estimated time (hours)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,31 +97,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -136,10 +169,38 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,18 +216,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343451C5-A6B4-499D-BE2E-D3BA567C06C4}" name="Table1" displayName="Table1" ref="A1:I1000" totalsRowShown="0" headerRowDxfId="1" dataDxfId="10">
-  <autoFilter ref="A1:I1000" xr:uid="{343451C5-A6B4-499D-BE2E-D3BA567C06C4}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{60E3931F-14AD-4F9A-A185-D37A9B2A3B79}" name="#" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1A826AC3-12CB-4DA4-8C29-FDD97D76B26C}" name="Standard Estimation (hours)" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FC6A8623-943A-486A-8C5A-75BB289427D4}" name="Estimation by user" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{005B7580-3A5F-4AFF-926B-8D4BE23EC427}" name="Spent time (hours)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{ED7C95F1-3D37-45EF-9385-59CB5D25306A}" name="Tracker" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{39ECC2C6-6315-44BC-A3B8-B692E794C481}" name="Gap between  Standard Estimation &amp; Estimation (%)" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{722C959A-62EC-453D-BBF4-D7E2E2878D2F}" name="Gap between  Standard Estimation &amp; Spent time (%)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{9103F75D-0C1D-4F7F-9FFD-BCF391F7E0C4}" name="Gap between Standard Estimation &amp; Spent time (hours)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1B4B0032-8C55-4CC4-ADD5-DBD76CE5463B}" name="Assignee" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{343451C5-A6B4-499D-BE2E-D3BA567C06C4}" name="Table1" displayName="Table1" ref="A1:J1000" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
+  <autoFilter ref="A1:J1000" xr:uid="{343451C5-A6B4-499D-BE2E-D3BA567C06C4}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{60E3931F-14AD-4F9A-A185-D37A9B2A3B79}" name="#" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1A826AC3-12CB-4DA4-8C29-FDD97D76B26C}" name="Standard Estimation" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E25E904A-AFB3-4AEF-9132-D7394D84BE1E}" name="Estimated time" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{5688D416-1708-44EB-8D3A-19E47BDAF792}" name="Gap * 100% (EST)" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{32241588-5EBA-4CCA-9DE1-562A84F86993}" name="Gap between Standard Estimation &amp; Estimated time (hours)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{005B7580-3A5F-4AFF-926B-8D4BE23EC427}" name="Spent time" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED7C95F1-3D37-45EF-9385-59CB5D25306A}" name="Gap * 100% (ST)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{DD6281B8-4D82-43EA-80E2-4278214A4502}" name="Gap between Standard Estimation &amp; Spent time (hours)"/>
+    <tableColumn id="9" xr3:uid="{39ECC2C6-6315-44BC-A3B8-B692E794C481}" name="Tracker" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{722C959A-62EC-453D-BBF4-D7E2E2878D2F}" name="Assignee" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,58 +531,7059 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38585D69-EA25-4B47-A826-D90B827C24A8}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="2"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="2"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="2"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="2"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61" s="2"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="2"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="2"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F68" s="2"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="2"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="2"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="2"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="2"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="2"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="2"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="2"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="2"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="2"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="2"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="2"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="2"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="2"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F84" s="2"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F85" s="2"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="2"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F87" s="2"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F88" s="2"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="2"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="2"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="2"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="2"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="2"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="2"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F95" s="2"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F98" s="2"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F99" s="2"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F100" s="2"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F106" s="2"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F107" s="2"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F109" s="2"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F111" s="2"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F112" s="2"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F113" s="2"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F114" s="2"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F116" s="2"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F117" s="2"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F118" s="2"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F119" s="2"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F120" s="2"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F121" s="2"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F122" s="2"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F123" s="2"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F124" s="2"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F125" s="2"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F126" s="2"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F127" s="2"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F128" s="2"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F129" s="2"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F130" s="2"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F131" s="2"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F132" s="2"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F133" s="2"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F134" s="2"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F135" s="2"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F136" s="2"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="2"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F138" s="2"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F139" s="2"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F140" s="2"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F141" s="2"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F142" s="2"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F143" s="2"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F144" s="2"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F145" s="2"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F146" s="2"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F147" s="2"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F148" s="2"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F149" s="2"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F150" s="2"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F151" s="2"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F152" s="2"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F153" s="2"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F154" s="2"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F155" s="2"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F156" s="2"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="2"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F158" s="2"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F160" s="2"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F161" s="2"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F162" s="2"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F163" s="2"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F164" s="2"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F165" s="2"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F166" s="2"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F167" s="2"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F168" s="2"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F169" s="2"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F170" s="2"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F171" s="2"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F172" s="2"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F173" s="2"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F174" s="2"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F175" s="2"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F176" s="2"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F177" s="2"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F178" s="2"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F179" s="2"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F180" s="2"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F181" s="2"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F182" s="2"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F183" s="2"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F184" s="2"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F185" s="2"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F186" s="2"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F187" s="2"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F188" s="2"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F189" s="2"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F190" s="2"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F191" s="2"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F192" s="2"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F193" s="2"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F194" s="2"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F195" s="2"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F196" s="2"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F197" s="2"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F198" s="2"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F199" s="2"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F200" s="2"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F201" s="2"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F202" s="2"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F203" s="2"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F204" s="2"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F205" s="2"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F206" s="2"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F207" s="2"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F208" s="2"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F209" s="2"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F210" s="2"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F211" s="2"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F212" s="2"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F213" s="2"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F214" s="2"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F215" s="2"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F216" s="2"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F217" s="2"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F218" s="2"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F219" s="2"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F220" s="2"/>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F221" s="2"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F222" s="2"/>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F223" s="2"/>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F224" s="2"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F225" s="2"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F226" s="2"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F227" s="2"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F228" s="2"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F229" s="2"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F230" s="2"/>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F231" s="2"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F232" s="2"/>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F233" s="2"/>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F234" s="2"/>
+      <c r="G234"/>
+      <c r="H234"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F235" s="2"/>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F236" s="2"/>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F237" s="2"/>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F238" s="2"/>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F239" s="2"/>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F240" s="2"/>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F241" s="2"/>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F242" s="2"/>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F243" s="2"/>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F244" s="2"/>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F245" s="2"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F246" s="2"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F247" s="2"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F248" s="2"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F249" s="2"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F250" s="2"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F251" s="2"/>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F252" s="2"/>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F253" s="2"/>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F254" s="2"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F255" s="2"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F256" s="2"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F257" s="2"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F258" s="2"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F259" s="2"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F260" s="2"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F261" s="2"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F262" s="2"/>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F263" s="2"/>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F264" s="2"/>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F265" s="2"/>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F266" s="2"/>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F267" s="2"/>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F268" s="2"/>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F269" s="2"/>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F270" s="2"/>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F271" s="2"/>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F272" s="2"/>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F273" s="2"/>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F274" s="2"/>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F275" s="2"/>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F276" s="2"/>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F277" s="2"/>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F278" s="2"/>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F279" s="2"/>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F280" s="2"/>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F281" s="2"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F282" s="2"/>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F283" s="2"/>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F284" s="2"/>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F285" s="2"/>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F286" s="2"/>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F287" s="2"/>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F288" s="2"/>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F289" s="2"/>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F290" s="2"/>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F291" s="2"/>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F292" s="2"/>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F293" s="2"/>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F294" s="2"/>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F295" s="2"/>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F296" s="2"/>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F297" s="2"/>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F298" s="2"/>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F299" s="2"/>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F300" s="2"/>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F301" s="2"/>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F302" s="2"/>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F303" s="2"/>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F304" s="2"/>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+    </row>
+    <row r="305" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F305" s="2"/>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F306" s="2"/>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+    </row>
+    <row r="307" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F307" s="2"/>
+      <c r="G307"/>
+      <c r="H307"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+    </row>
+    <row r="308" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F308" s="2"/>
+      <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+    </row>
+    <row r="309" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F309" s="2"/>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+    </row>
+    <row r="310" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F310" s="2"/>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F311" s="2"/>
+      <c r="G311"/>
+      <c r="H311"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+    </row>
+    <row r="312" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F312" s="2"/>
+      <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+    </row>
+    <row r="313" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F313" s="2"/>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+    </row>
+    <row r="314" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F314" s="2"/>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+    </row>
+    <row r="315" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F315" s="2"/>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+    </row>
+    <row r="316" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F316" s="2"/>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F317" s="2"/>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+    </row>
+    <row r="318" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F318" s="2"/>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+    </row>
+    <row r="319" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F319" s="2"/>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+    </row>
+    <row r="320" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F320" s="2"/>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+    </row>
+    <row r="321" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F321" s="2"/>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+    </row>
+    <row r="322" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F322" s="2"/>
+      <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+    </row>
+    <row r="323" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F323" s="2"/>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+    </row>
+    <row r="324" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F324" s="2"/>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F325" s="2"/>
+      <c r="G325"/>
+      <c r="H325"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F326" s="2"/>
+      <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+    </row>
+    <row r="327" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F327" s="2"/>
+      <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F328" s="2"/>
+      <c r="G328"/>
+      <c r="H328"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+    </row>
+    <row r="329" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F329" s="2"/>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+    </row>
+    <row r="330" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F330" s="2"/>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+    </row>
+    <row r="331" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F331" s="2"/>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+    </row>
+    <row r="332" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F332" s="2"/>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+    </row>
+    <row r="333" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F333" s="2"/>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+    </row>
+    <row r="334" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F334" s="2"/>
+      <c r="G334"/>
+      <c r="H334"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+    </row>
+    <row r="335" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F335" s="2"/>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+    </row>
+    <row r="336" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F336" s="2"/>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+    </row>
+    <row r="337" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F337" s="2"/>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F338" s="2"/>
+      <c r="G338"/>
+      <c r="H338"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+    </row>
+    <row r="339" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F339" s="2"/>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+    </row>
+    <row r="340" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F340" s="2"/>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+    </row>
+    <row r="341" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F341" s="2"/>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F342" s="2"/>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F343" s="2"/>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F344" s="2"/>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+    </row>
+    <row r="345" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F345" s="2"/>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F346" s="2"/>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+    </row>
+    <row r="347" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F347" s="2"/>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+    </row>
+    <row r="348" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F348" s="2"/>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+    </row>
+    <row r="349" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F349" s="2"/>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F350" s="2"/>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+    </row>
+    <row r="351" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F351" s="2"/>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+    </row>
+    <row r="352" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F352" s="2"/>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+    </row>
+    <row r="353" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F353" s="2"/>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F354" s="2"/>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F355" s="2"/>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+    </row>
+    <row r="356" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F356" s="2"/>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+    </row>
+    <row r="357" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F357" s="2"/>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+    </row>
+    <row r="358" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F358" s="2"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+    </row>
+    <row r="359" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F359" s="2"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F360" s="2"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F361" s="2"/>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F362" s="2"/>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+    </row>
+    <row r="363" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F363" s="2"/>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F364" s="2"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F365" s="2"/>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+    </row>
+    <row r="366" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F366" s="2"/>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+    </row>
+    <row r="367" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F367" s="2"/>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+    </row>
+    <row r="368" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F368" s="2"/>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F369" s="2"/>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+    </row>
+    <row r="370" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F370" s="2"/>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+    </row>
+    <row r="371" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F371" s="2"/>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+    </row>
+    <row r="372" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F372" s="2"/>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+    </row>
+    <row r="373" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F373" s="2"/>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+    </row>
+    <row r="374" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F374" s="2"/>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+    </row>
+    <row r="375" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F375" s="2"/>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F376" s="2"/>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+    </row>
+    <row r="377" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F377" s="2"/>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+    </row>
+    <row r="378" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F378" s="2"/>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F379" s="2"/>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F380" s="2"/>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F381" s="2"/>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F382" s="2"/>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F383" s="2"/>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F384" s="2"/>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F385" s="2"/>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F386" s="2"/>
+      <c r="G386"/>
+      <c r="H386"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F387" s="2"/>
+      <c r="G387"/>
+      <c r="H387"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+    </row>
+    <row r="388" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F388" s="2"/>
+      <c r="G388"/>
+      <c r="H388"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F389" s="2"/>
+      <c r="G389"/>
+      <c r="H389"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F390" s="2"/>
+      <c r="G390"/>
+      <c r="H390"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F391" s="2"/>
+      <c r="G391"/>
+      <c r="H391"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+    </row>
+    <row r="392" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F392" s="2"/>
+      <c r="G392"/>
+      <c r="H392"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F393" s="2"/>
+      <c r="G393"/>
+      <c r="H393"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F394" s="2"/>
+      <c r="G394"/>
+      <c r="H394"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+    </row>
+    <row r="395" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F395" s="2"/>
+      <c r="G395"/>
+      <c r="H395"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F396" s="2"/>
+      <c r="G396"/>
+      <c r="H396"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+    </row>
+    <row r="397" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F397" s="2"/>
+      <c r="G397"/>
+      <c r="H397"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+    </row>
+    <row r="398" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F398" s="2"/>
+      <c r="G398"/>
+      <c r="H398"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+    </row>
+    <row r="399" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F399" s="2"/>
+      <c r="G399"/>
+      <c r="H399"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+    </row>
+    <row r="400" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F400" s="2"/>
+      <c r="G400"/>
+      <c r="H400"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F401" s="2"/>
+      <c r="G401"/>
+      <c r="H401"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+    </row>
+    <row r="402" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F402" s="2"/>
+      <c r="G402"/>
+      <c r="H402"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+    </row>
+    <row r="403" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F403" s="2"/>
+      <c r="G403"/>
+      <c r="H403"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F404" s="2"/>
+      <c r="G404"/>
+      <c r="H404"/>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F405" s="2"/>
+      <c r="G405"/>
+      <c r="H405"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+    </row>
+    <row r="406" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F406" s="2"/>
+      <c r="G406"/>
+      <c r="H406"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+    </row>
+    <row r="407" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F407" s="2"/>
+      <c r="G407"/>
+      <c r="H407"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+    </row>
+    <row r="408" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F408" s="2"/>
+      <c r="G408"/>
+      <c r="H408"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+    </row>
+    <row r="409" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F409" s="2"/>
+      <c r="G409"/>
+      <c r="H409"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F410" s="2"/>
+      <c r="G410"/>
+      <c r="H410"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F411" s="2"/>
+      <c r="G411"/>
+      <c r="H411"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F412" s="2"/>
+      <c r="G412"/>
+      <c r="H412"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F413" s="2"/>
+      <c r="G413"/>
+      <c r="H413"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F414" s="2"/>
+      <c r="G414"/>
+      <c r="H414"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F415" s="2"/>
+      <c r="G415"/>
+      <c r="H415"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F416" s="2"/>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F417" s="2"/>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+    </row>
+    <row r="418" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F418" s="2"/>
+      <c r="G418"/>
+      <c r="H418"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+    </row>
+    <row r="419" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F419" s="2"/>
+      <c r="G419"/>
+      <c r="H419"/>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+    </row>
+    <row r="420" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F420" s="2"/>
+      <c r="G420"/>
+      <c r="H420"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+    </row>
+    <row r="421" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F421" s="2"/>
+      <c r="G421"/>
+      <c r="H421"/>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+    </row>
+    <row r="422" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F422" s="2"/>
+      <c r="G422"/>
+      <c r="H422"/>
+      <c r="I422" s="1"/>
+      <c r="J422" s="1"/>
+    </row>
+    <row r="423" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F423" s="2"/>
+      <c r="G423"/>
+      <c r="H423"/>
+      <c r="I423" s="1"/>
+      <c r="J423" s="1"/>
+    </row>
+    <row r="424" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F424" s="2"/>
+      <c r="G424"/>
+      <c r="H424"/>
+      <c r="I424" s="1"/>
+      <c r="J424" s="1"/>
+    </row>
+    <row r="425" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F425" s="2"/>
+      <c r="G425"/>
+      <c r="H425"/>
+      <c r="I425" s="1"/>
+      <c r="J425" s="1"/>
+    </row>
+    <row r="426" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F426" s="2"/>
+      <c r="G426"/>
+      <c r="H426"/>
+      <c r="I426" s="1"/>
+      <c r="J426" s="1"/>
+    </row>
+    <row r="427" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F427" s="2"/>
+      <c r="G427"/>
+      <c r="H427"/>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
+    </row>
+    <row r="428" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F428" s="2"/>
+      <c r="G428"/>
+      <c r="H428"/>
+      <c r="I428" s="1"/>
+      <c r="J428" s="1"/>
+    </row>
+    <row r="429" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F429" s="2"/>
+      <c r="G429"/>
+      <c r="H429"/>
+      <c r="I429" s="1"/>
+      <c r="J429" s="1"/>
+    </row>
+    <row r="430" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F430" s="2"/>
+      <c r="G430"/>
+      <c r="H430"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+    </row>
+    <row r="431" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F431" s="2"/>
+      <c r="G431"/>
+      <c r="H431"/>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+    </row>
+    <row r="432" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F432" s="2"/>
+      <c r="G432"/>
+      <c r="H432"/>
+      <c r="I432" s="1"/>
+      <c r="J432" s="1"/>
+    </row>
+    <row r="433" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F433" s="2"/>
+      <c r="G433"/>
+      <c r="H433"/>
+      <c r="I433" s="1"/>
+      <c r="J433" s="1"/>
+    </row>
+    <row r="434" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F434" s="2"/>
+      <c r="G434"/>
+      <c r="H434"/>
+      <c r="I434" s="1"/>
+      <c r="J434" s="1"/>
+    </row>
+    <row r="435" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F435" s="2"/>
+      <c r="G435"/>
+      <c r="H435"/>
+      <c r="I435" s="1"/>
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F436" s="2"/>
+      <c r="G436"/>
+      <c r="H436"/>
+      <c r="I436" s="1"/>
+      <c r="J436" s="1"/>
+    </row>
+    <row r="437" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F437" s="2"/>
+      <c r="G437"/>
+      <c r="H437"/>
+      <c r="I437" s="1"/>
+      <c r="J437" s="1"/>
+    </row>
+    <row r="438" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F438" s="2"/>
+      <c r="G438"/>
+      <c r="H438"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+    </row>
+    <row r="439" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F439" s="2"/>
+      <c r="G439"/>
+      <c r="H439"/>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
+    </row>
+    <row r="440" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F440" s="2"/>
+      <c r="G440"/>
+      <c r="H440"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+    </row>
+    <row r="441" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F441" s="2"/>
+      <c r="G441"/>
+      <c r="H441"/>
+      <c r="I441" s="1"/>
+      <c r="J441" s="1"/>
+    </row>
+    <row r="442" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F442" s="2"/>
+      <c r="G442"/>
+      <c r="H442"/>
+      <c r="I442" s="1"/>
+      <c r="J442" s="1"/>
+    </row>
+    <row r="443" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F443" s="2"/>
+      <c r="G443"/>
+      <c r="H443"/>
+      <c r="I443" s="1"/>
+      <c r="J443" s="1"/>
+    </row>
+    <row r="444" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F444" s="2"/>
+      <c r="G444"/>
+      <c r="H444"/>
+      <c r="I444" s="1"/>
+      <c r="J444" s="1"/>
+    </row>
+    <row r="445" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F445" s="2"/>
+      <c r="G445"/>
+      <c r="H445"/>
+      <c r="I445" s="1"/>
+      <c r="J445" s="1"/>
+    </row>
+    <row r="446" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F446" s="2"/>
+      <c r="G446"/>
+      <c r="H446"/>
+      <c r="I446" s="1"/>
+      <c r="J446" s="1"/>
+    </row>
+    <row r="447" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F447" s="2"/>
+      <c r="G447"/>
+      <c r="H447"/>
+      <c r="I447" s="1"/>
+      <c r="J447" s="1"/>
+    </row>
+    <row r="448" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F448" s="2"/>
+      <c r="G448"/>
+      <c r="H448"/>
+      <c r="I448" s="1"/>
+      <c r="J448" s="1"/>
+    </row>
+    <row r="449" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F449" s="2"/>
+      <c r="G449"/>
+      <c r="H449"/>
+      <c r="I449" s="1"/>
+      <c r="J449" s="1"/>
+    </row>
+    <row r="450" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F450" s="2"/>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450" s="1"/>
+      <c r="J450" s="1"/>
+    </row>
+    <row r="451" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F451" s="2"/>
+      <c r="G451"/>
+      <c r="H451"/>
+      <c r="I451" s="1"/>
+      <c r="J451" s="1"/>
+    </row>
+    <row r="452" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F452" s="2"/>
+      <c r="G452"/>
+      <c r="H452"/>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+    </row>
+    <row r="453" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F453" s="2"/>
+      <c r="G453"/>
+      <c r="H453"/>
+      <c r="I453" s="1"/>
+      <c r="J453" s="1"/>
+    </row>
+    <row r="454" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F454" s="2"/>
+      <c r="G454"/>
+      <c r="H454"/>
+      <c r="I454" s="1"/>
+      <c r="J454" s="1"/>
+    </row>
+    <row r="455" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F455" s="2"/>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455" s="1"/>
+      <c r="J455" s="1"/>
+    </row>
+    <row r="456" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F456" s="2"/>
+      <c r="G456"/>
+      <c r="H456"/>
+      <c r="I456" s="1"/>
+      <c r="J456" s="1"/>
+    </row>
+    <row r="457" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F457" s="2"/>
+      <c r="G457"/>
+      <c r="H457"/>
+      <c r="I457" s="1"/>
+      <c r="J457" s="1"/>
+    </row>
+    <row r="458" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F458" s="2"/>
+      <c r="G458"/>
+      <c r="H458"/>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
+    </row>
+    <row r="459" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F459" s="2"/>
+      <c r="G459"/>
+      <c r="H459"/>
+      <c r="I459" s="1"/>
+      <c r="J459" s="1"/>
+    </row>
+    <row r="460" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F460" s="2"/>
+      <c r="G460"/>
+      <c r="H460"/>
+      <c r="I460" s="1"/>
+      <c r="J460" s="1"/>
+    </row>
+    <row r="461" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F461" s="2"/>
+      <c r="G461"/>
+      <c r="H461"/>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+    </row>
+    <row r="462" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F462" s="2"/>
+      <c r="G462"/>
+      <c r="H462"/>
+      <c r="I462" s="1"/>
+      <c r="J462" s="1"/>
+    </row>
+    <row r="463" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F463" s="2"/>
+      <c r="G463"/>
+      <c r="H463"/>
+      <c r="I463" s="1"/>
+      <c r="J463" s="1"/>
+    </row>
+    <row r="464" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F464" s="2"/>
+      <c r="G464"/>
+      <c r="H464"/>
+      <c r="I464" s="1"/>
+      <c r="J464" s="1"/>
+    </row>
+    <row r="465" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F465" s="2"/>
+      <c r="G465"/>
+      <c r="H465"/>
+      <c r="I465" s="1"/>
+      <c r="J465" s="1"/>
+    </row>
+    <row r="466" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F466" s="2"/>
+      <c r="G466"/>
+      <c r="H466"/>
+      <c r="I466" s="1"/>
+      <c r="J466" s="1"/>
+    </row>
+    <row r="467" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F467" s="2"/>
+      <c r="G467"/>
+      <c r="H467"/>
+      <c r="I467" s="1"/>
+      <c r="J467" s="1"/>
+    </row>
+    <row r="468" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F468" s="2"/>
+      <c r="G468"/>
+      <c r="H468"/>
+      <c r="I468" s="1"/>
+      <c r="J468" s="1"/>
+    </row>
+    <row r="469" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F469" s="2"/>
+      <c r="G469"/>
+      <c r="H469"/>
+      <c r="I469" s="1"/>
+      <c r="J469" s="1"/>
+    </row>
+    <row r="470" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F470" s="2"/>
+      <c r="G470"/>
+      <c r="H470"/>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
+    </row>
+    <row r="471" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F471" s="2"/>
+      <c r="G471"/>
+      <c r="H471"/>
+      <c r="I471" s="1"/>
+      <c r="J471" s="1"/>
+    </row>
+    <row r="472" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F472" s="2"/>
+      <c r="G472"/>
+      <c r="H472"/>
+      <c r="I472" s="1"/>
+      <c r="J472" s="1"/>
+    </row>
+    <row r="473" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F473" s="2"/>
+      <c r="G473"/>
+      <c r="H473"/>
+      <c r="I473" s="1"/>
+      <c r="J473" s="1"/>
+    </row>
+    <row r="474" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F474" s="2"/>
+      <c r="G474"/>
+      <c r="H474"/>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
+    </row>
+    <row r="475" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F475" s="2"/>
+      <c r="G475"/>
+      <c r="H475"/>
+      <c r="I475" s="1"/>
+      <c r="J475" s="1"/>
+    </row>
+    <row r="476" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F476" s="2"/>
+      <c r="G476"/>
+      <c r="H476"/>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+    </row>
+    <row r="477" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F477" s="2"/>
+      <c r="G477"/>
+      <c r="H477"/>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
+    </row>
+    <row r="478" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F478" s="2"/>
+      <c r="G478"/>
+      <c r="H478"/>
+      <c r="I478" s="1"/>
+      <c r="J478" s="1"/>
+    </row>
+    <row r="479" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F479" s="2"/>
+      <c r="G479"/>
+      <c r="H479"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+    </row>
+    <row r="480" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F480" s="2"/>
+      <c r="G480"/>
+      <c r="H480"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
+    </row>
+    <row r="481" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F481" s="2"/>
+      <c r="G481"/>
+      <c r="H481"/>
+      <c r="I481" s="1"/>
+      <c r="J481" s="1"/>
+    </row>
+    <row r="482" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F482" s="2"/>
+      <c r="G482"/>
+      <c r="H482"/>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
+    </row>
+    <row r="483" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F483" s="2"/>
+      <c r="G483"/>
+      <c r="H483"/>
+      <c r="I483" s="1"/>
+      <c r="J483" s="1"/>
+    </row>
+    <row r="484" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F484" s="2"/>
+      <c r="G484"/>
+      <c r="H484"/>
+      <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
+    </row>
+    <row r="485" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F485" s="2"/>
+      <c r="G485"/>
+      <c r="H485"/>
+      <c r="I485" s="1"/>
+      <c r="J485" s="1"/>
+    </row>
+    <row r="486" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F486" s="2"/>
+      <c r="G486"/>
+      <c r="H486"/>
+      <c r="I486" s="1"/>
+      <c r="J486" s="1"/>
+    </row>
+    <row r="487" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F487" s="2"/>
+      <c r="G487"/>
+      <c r="H487"/>
+      <c r="I487" s="1"/>
+      <c r="J487" s="1"/>
+    </row>
+    <row r="488" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F488" s="2"/>
+      <c r="G488"/>
+      <c r="H488"/>
+      <c r="I488" s="1"/>
+      <c r="J488" s="1"/>
+    </row>
+    <row r="489" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F489" s="2"/>
+      <c r="G489"/>
+      <c r="H489"/>
+      <c r="I489" s="1"/>
+      <c r="J489" s="1"/>
+    </row>
+    <row r="490" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F490" s="2"/>
+      <c r="G490"/>
+      <c r="H490"/>
+      <c r="I490" s="1"/>
+      <c r="J490" s="1"/>
+    </row>
+    <row r="491" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F491" s="2"/>
+      <c r="G491"/>
+      <c r="H491"/>
+      <c r="I491" s="1"/>
+      <c r="J491" s="1"/>
+    </row>
+    <row r="492" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F492" s="2"/>
+      <c r="G492"/>
+      <c r="H492"/>
+      <c r="I492" s="1"/>
+      <c r="J492" s="1"/>
+    </row>
+    <row r="493" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F493" s="2"/>
+      <c r="G493"/>
+      <c r="H493"/>
+      <c r="I493" s="1"/>
+      <c r="J493" s="1"/>
+    </row>
+    <row r="494" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F494" s="2"/>
+      <c r="G494"/>
+      <c r="H494"/>
+      <c r="I494" s="1"/>
+      <c r="J494" s="1"/>
+    </row>
+    <row r="495" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F495" s="2"/>
+      <c r="G495"/>
+      <c r="H495"/>
+      <c r="I495" s="1"/>
+      <c r="J495" s="1"/>
+    </row>
+    <row r="496" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F496" s="2"/>
+      <c r="G496"/>
+      <c r="H496"/>
+      <c r="I496" s="1"/>
+      <c r="J496" s="1"/>
+    </row>
+    <row r="497" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F497" s="2"/>
+      <c r="G497"/>
+      <c r="H497"/>
+      <c r="I497" s="1"/>
+      <c r="J497" s="1"/>
+    </row>
+    <row r="498" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F498" s="2"/>
+      <c r="G498"/>
+      <c r="H498"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
+    </row>
+    <row r="499" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F499" s="2"/>
+      <c r="G499"/>
+      <c r="H499"/>
+      <c r="I499" s="1"/>
+      <c r="J499" s="1"/>
+    </row>
+    <row r="500" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F500" s="2"/>
+      <c r="G500"/>
+      <c r="H500"/>
+      <c r="I500" s="1"/>
+      <c r="J500" s="1"/>
+    </row>
+    <row r="501" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F501" s="2"/>
+      <c r="G501"/>
+      <c r="H501"/>
+      <c r="I501" s="1"/>
+      <c r="J501" s="1"/>
+    </row>
+    <row r="502" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F502" s="2"/>
+      <c r="G502"/>
+      <c r="H502"/>
+      <c r="I502" s="1"/>
+      <c r="J502" s="1"/>
+    </row>
+    <row r="503" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F503" s="2"/>
+      <c r="G503"/>
+      <c r="H503"/>
+      <c r="I503" s="1"/>
+      <c r="J503" s="1"/>
+    </row>
+    <row r="504" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F504" s="2"/>
+      <c r="G504"/>
+      <c r="H504"/>
+      <c r="I504" s="1"/>
+      <c r="J504" s="1"/>
+    </row>
+    <row r="505" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F505" s="2"/>
+      <c r="G505"/>
+      <c r="H505"/>
+      <c r="I505" s="1"/>
+      <c r="J505" s="1"/>
+    </row>
+    <row r="506" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F506" s="2"/>
+      <c r="G506"/>
+      <c r="H506"/>
+      <c r="I506" s="1"/>
+      <c r="J506" s="1"/>
+    </row>
+    <row r="507" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F507" s="2"/>
+      <c r="G507"/>
+      <c r="H507"/>
+      <c r="I507" s="1"/>
+      <c r="J507" s="1"/>
+    </row>
+    <row r="508" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F508" s="2"/>
+      <c r="G508"/>
+      <c r="H508"/>
+      <c r="I508" s="1"/>
+      <c r="J508" s="1"/>
+    </row>
+    <row r="509" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F509" s="2"/>
+      <c r="G509"/>
+      <c r="H509"/>
+      <c r="I509" s="1"/>
+      <c r="J509" s="1"/>
+    </row>
+    <row r="510" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F510" s="2"/>
+      <c r="G510"/>
+      <c r="H510"/>
+      <c r="I510" s="1"/>
+      <c r="J510" s="1"/>
+    </row>
+    <row r="511" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F511" s="2"/>
+      <c r="G511"/>
+      <c r="H511"/>
+      <c r="I511" s="1"/>
+      <c r="J511" s="1"/>
+    </row>
+    <row r="512" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F512" s="2"/>
+      <c r="G512"/>
+      <c r="H512"/>
+      <c r="I512" s="1"/>
+      <c r="J512" s="1"/>
+    </row>
+    <row r="513" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F513" s="2"/>
+      <c r="G513"/>
+      <c r="H513"/>
+      <c r="I513" s="1"/>
+      <c r="J513" s="1"/>
+    </row>
+    <row r="514" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F514" s="2"/>
+      <c r="G514"/>
+      <c r="H514"/>
+      <c r="I514" s="1"/>
+      <c r="J514" s="1"/>
+    </row>
+    <row r="515" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F515" s="2"/>
+      <c r="G515"/>
+      <c r="H515"/>
+      <c r="I515" s="1"/>
+      <c r="J515" s="1"/>
+    </row>
+    <row r="516" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F516" s="2"/>
+      <c r="G516"/>
+      <c r="H516"/>
+      <c r="I516" s="1"/>
+      <c r="J516" s="1"/>
+    </row>
+    <row r="517" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F517" s="2"/>
+      <c r="G517"/>
+      <c r="H517"/>
+      <c r="I517" s="1"/>
+      <c r="J517" s="1"/>
+    </row>
+    <row r="518" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F518" s="2"/>
+      <c r="G518"/>
+      <c r="H518"/>
+      <c r="I518" s="1"/>
+      <c r="J518" s="1"/>
+    </row>
+    <row r="519" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F519" s="2"/>
+      <c r="G519"/>
+      <c r="H519"/>
+      <c r="I519" s="1"/>
+      <c r="J519" s="1"/>
+    </row>
+    <row r="520" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F520" s="2"/>
+      <c r="G520"/>
+      <c r="H520"/>
+      <c r="I520" s="1"/>
+      <c r="J520" s="1"/>
+    </row>
+    <row r="521" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F521" s="2"/>
+      <c r="G521"/>
+      <c r="H521"/>
+      <c r="I521" s="1"/>
+      <c r="J521" s="1"/>
+    </row>
+    <row r="522" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F522" s="2"/>
+      <c r="G522"/>
+      <c r="H522"/>
+      <c r="I522" s="1"/>
+      <c r="J522" s="1"/>
+    </row>
+    <row r="523" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F523" s="2"/>
+      <c r="G523"/>
+      <c r="H523"/>
+      <c r="I523" s="1"/>
+      <c r="J523" s="1"/>
+    </row>
+    <row r="524" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F524" s="2"/>
+      <c r="G524"/>
+      <c r="H524"/>
+      <c r="I524" s="1"/>
+      <c r="J524" s="1"/>
+    </row>
+    <row r="525" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F525" s="2"/>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525" s="1"/>
+      <c r="J525" s="1"/>
+    </row>
+    <row r="526" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F526" s="2"/>
+      <c r="G526"/>
+      <c r="H526"/>
+      <c r="I526" s="1"/>
+      <c r="J526" s="1"/>
+    </row>
+    <row r="527" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F527" s="2"/>
+      <c r="G527"/>
+      <c r="H527"/>
+      <c r="I527" s="1"/>
+      <c r="J527" s="1"/>
+    </row>
+    <row r="528" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F528" s="2"/>
+      <c r="G528"/>
+      <c r="H528"/>
+      <c r="I528" s="1"/>
+      <c r="J528" s="1"/>
+    </row>
+    <row r="529" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F529" s="2"/>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529" s="1"/>
+      <c r="J529" s="1"/>
+    </row>
+    <row r="530" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F530" s="2"/>
+      <c r="G530"/>
+      <c r="H530"/>
+      <c r="I530" s="1"/>
+      <c r="J530" s="1"/>
+    </row>
+    <row r="531" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F531" s="2"/>
+      <c r="G531"/>
+      <c r="H531"/>
+      <c r="I531" s="1"/>
+      <c r="J531" s="1"/>
+    </row>
+    <row r="532" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F532" s="2"/>
+      <c r="G532"/>
+      <c r="H532"/>
+      <c r="I532" s="1"/>
+      <c r="J532" s="1"/>
+    </row>
+    <row r="533" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F533" s="2"/>
+      <c r="G533"/>
+      <c r="H533"/>
+      <c r="I533" s="1"/>
+      <c r="J533" s="1"/>
+    </row>
+    <row r="534" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F534" s="2"/>
+      <c r="G534"/>
+      <c r="H534"/>
+      <c r="I534" s="1"/>
+      <c r="J534" s="1"/>
+    </row>
+    <row r="535" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F535" s="2"/>
+      <c r="G535"/>
+      <c r="H535"/>
+      <c r="I535" s="1"/>
+      <c r="J535" s="1"/>
+    </row>
+    <row r="536" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F536" s="2"/>
+      <c r="G536"/>
+      <c r="H536"/>
+      <c r="I536" s="1"/>
+      <c r="J536" s="1"/>
+    </row>
+    <row r="537" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F537" s="2"/>
+      <c r="G537"/>
+      <c r="H537"/>
+      <c r="I537" s="1"/>
+      <c r="J537" s="1"/>
+    </row>
+    <row r="538" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F538" s="2"/>
+      <c r="G538"/>
+      <c r="H538"/>
+      <c r="I538" s="1"/>
+      <c r="J538" s="1"/>
+    </row>
+    <row r="539" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F539" s="2"/>
+      <c r="G539"/>
+      <c r="H539"/>
+      <c r="I539" s="1"/>
+      <c r="J539" s="1"/>
+    </row>
+    <row r="540" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F540" s="2"/>
+      <c r="G540"/>
+      <c r="H540"/>
+      <c r="I540" s="1"/>
+      <c r="J540" s="1"/>
+    </row>
+    <row r="541" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F541" s="2"/>
+      <c r="G541"/>
+      <c r="H541"/>
+      <c r="I541" s="1"/>
+      <c r="J541" s="1"/>
+    </row>
+    <row r="542" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F542" s="2"/>
+      <c r="G542"/>
+      <c r="H542"/>
+      <c r="I542" s="1"/>
+      <c r="J542" s="1"/>
+    </row>
+    <row r="543" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F543" s="2"/>
+      <c r="G543"/>
+      <c r="H543"/>
+      <c r="I543" s="1"/>
+      <c r="J543" s="1"/>
+    </row>
+    <row r="544" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F544" s="2"/>
+      <c r="G544"/>
+      <c r="H544"/>
+      <c r="I544" s="1"/>
+      <c r="J544" s="1"/>
+    </row>
+    <row r="545" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F545" s="2"/>
+      <c r="G545"/>
+      <c r="H545"/>
+      <c r="I545" s="1"/>
+      <c r="J545" s="1"/>
+    </row>
+    <row r="546" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F546" s="2"/>
+      <c r="G546"/>
+      <c r="H546"/>
+      <c r="I546" s="1"/>
+      <c r="J546" s="1"/>
+    </row>
+    <row r="547" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F547" s="2"/>
+      <c r="G547"/>
+      <c r="H547"/>
+      <c r="I547" s="1"/>
+      <c r="J547" s="1"/>
+    </row>
+    <row r="548" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F548" s="2"/>
+      <c r="G548"/>
+      <c r="H548"/>
+      <c r="I548" s="1"/>
+      <c r="J548" s="1"/>
+    </row>
+    <row r="549" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F549" s="2"/>
+      <c r="G549"/>
+      <c r="H549"/>
+      <c r="I549" s="1"/>
+      <c r="J549" s="1"/>
+    </row>
+    <row r="550" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F550" s="2"/>
+      <c r="G550"/>
+      <c r="H550"/>
+      <c r="I550" s="1"/>
+      <c r="J550" s="1"/>
+    </row>
+    <row r="551" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F551" s="2"/>
+      <c r="G551"/>
+      <c r="H551"/>
+      <c r="I551" s="1"/>
+      <c r="J551" s="1"/>
+    </row>
+    <row r="552" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F552" s="2"/>
+      <c r="G552"/>
+      <c r="H552"/>
+      <c r="I552" s="1"/>
+      <c r="J552" s="1"/>
+    </row>
+    <row r="553" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F553" s="2"/>
+      <c r="G553"/>
+      <c r="H553"/>
+      <c r="I553" s="1"/>
+      <c r="J553" s="1"/>
+    </row>
+    <row r="554" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F554" s="2"/>
+      <c r="G554"/>
+      <c r="H554"/>
+      <c r="I554" s="1"/>
+      <c r="J554" s="1"/>
+    </row>
+    <row r="555" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F555" s="2"/>
+      <c r="G555"/>
+      <c r="H555"/>
+      <c r="I555" s="1"/>
+      <c r="J555" s="1"/>
+    </row>
+    <row r="556" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F556" s="2"/>
+      <c r="G556"/>
+      <c r="H556"/>
+      <c r="I556" s="1"/>
+      <c r="J556" s="1"/>
+    </row>
+    <row r="557" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F557" s="2"/>
+      <c r="G557"/>
+      <c r="H557"/>
+      <c r="I557" s="1"/>
+      <c r="J557" s="1"/>
+    </row>
+    <row r="558" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F558" s="2"/>
+      <c r="G558"/>
+      <c r="H558"/>
+      <c r="I558" s="1"/>
+      <c r="J558" s="1"/>
+    </row>
+    <row r="559" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F559" s="2"/>
+      <c r="G559"/>
+      <c r="H559"/>
+      <c r="I559" s="1"/>
+      <c r="J559" s="1"/>
+    </row>
+    <row r="560" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F560" s="2"/>
+      <c r="G560"/>
+      <c r="H560"/>
+      <c r="I560" s="1"/>
+      <c r="J560" s="1"/>
+    </row>
+    <row r="561" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F561" s="2"/>
+      <c r="G561"/>
+      <c r="H561"/>
+      <c r="I561" s="1"/>
+      <c r="J561" s="1"/>
+    </row>
+    <row r="562" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F562" s="2"/>
+      <c r="G562"/>
+      <c r="H562"/>
+      <c r="I562" s="1"/>
+      <c r="J562" s="1"/>
+    </row>
+    <row r="563" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F563" s="2"/>
+      <c r="G563"/>
+      <c r="H563"/>
+      <c r="I563" s="1"/>
+      <c r="J563" s="1"/>
+    </row>
+    <row r="564" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F564" s="2"/>
+      <c r="G564"/>
+      <c r="H564"/>
+      <c r="I564" s="1"/>
+      <c r="J564" s="1"/>
+    </row>
+    <row r="565" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F565" s="2"/>
+      <c r="G565"/>
+      <c r="H565"/>
+      <c r="I565" s="1"/>
+      <c r="J565" s="1"/>
+    </row>
+    <row r="566" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F566" s="2"/>
+      <c r="G566"/>
+      <c r="H566"/>
+      <c r="I566" s="1"/>
+      <c r="J566" s="1"/>
+    </row>
+    <row r="567" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F567" s="2"/>
+      <c r="G567"/>
+      <c r="H567"/>
+      <c r="I567" s="1"/>
+      <c r="J567" s="1"/>
+    </row>
+    <row r="568" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F568" s="2"/>
+      <c r="G568"/>
+      <c r="H568"/>
+      <c r="I568" s="1"/>
+      <c r="J568" s="1"/>
+    </row>
+    <row r="569" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F569" s="2"/>
+      <c r="G569"/>
+      <c r="H569"/>
+      <c r="I569" s="1"/>
+      <c r="J569" s="1"/>
+    </row>
+    <row r="570" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F570" s="2"/>
+      <c r="G570"/>
+      <c r="H570"/>
+      <c r="I570" s="1"/>
+      <c r="J570" s="1"/>
+    </row>
+    <row r="571" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F571" s="2"/>
+      <c r="G571"/>
+      <c r="H571"/>
+      <c r="I571" s="1"/>
+      <c r="J571" s="1"/>
+    </row>
+    <row r="572" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F572" s="2"/>
+      <c r="G572"/>
+      <c r="H572"/>
+      <c r="I572" s="1"/>
+      <c r="J572" s="1"/>
+    </row>
+    <row r="573" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F573" s="2"/>
+      <c r="G573"/>
+      <c r="H573"/>
+      <c r="I573" s="1"/>
+      <c r="J573" s="1"/>
+    </row>
+    <row r="574" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F574" s="2"/>
+      <c r="G574"/>
+      <c r="H574"/>
+      <c r="I574" s="1"/>
+      <c r="J574" s="1"/>
+    </row>
+    <row r="575" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F575" s="2"/>
+      <c r="G575"/>
+      <c r="H575"/>
+      <c r="I575" s="1"/>
+      <c r="J575" s="1"/>
+    </row>
+    <row r="576" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F576" s="2"/>
+      <c r="G576"/>
+      <c r="H576"/>
+      <c r="I576" s="1"/>
+      <c r="J576" s="1"/>
+    </row>
+    <row r="577" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F577" s="2"/>
+      <c r="G577"/>
+      <c r="H577"/>
+      <c r="I577" s="1"/>
+      <c r="J577" s="1"/>
+    </row>
+    <row r="578" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F578" s="2"/>
+      <c r="G578"/>
+      <c r="H578"/>
+      <c r="I578" s="1"/>
+      <c r="J578" s="1"/>
+    </row>
+    <row r="579" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F579" s="2"/>
+      <c r="G579"/>
+      <c r="H579"/>
+      <c r="I579" s="1"/>
+      <c r="J579" s="1"/>
+    </row>
+    <row r="580" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F580" s="2"/>
+      <c r="G580"/>
+      <c r="H580"/>
+      <c r="I580" s="1"/>
+      <c r="J580" s="1"/>
+    </row>
+    <row r="581" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F581" s="2"/>
+      <c r="G581"/>
+      <c r="H581"/>
+      <c r="I581" s="1"/>
+      <c r="J581" s="1"/>
+    </row>
+    <row r="582" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F582" s="2"/>
+      <c r="G582"/>
+      <c r="H582"/>
+      <c r="I582" s="1"/>
+      <c r="J582" s="1"/>
+    </row>
+    <row r="583" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F583" s="2"/>
+      <c r="G583"/>
+      <c r="H583"/>
+      <c r="I583" s="1"/>
+      <c r="J583" s="1"/>
+    </row>
+    <row r="584" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F584" s="2"/>
+      <c r="G584"/>
+      <c r="H584"/>
+      <c r="I584" s="1"/>
+      <c r="J584" s="1"/>
+    </row>
+    <row r="585" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F585" s="2"/>
+      <c r="G585"/>
+      <c r="H585"/>
+      <c r="I585" s="1"/>
+      <c r="J585" s="1"/>
+    </row>
+    <row r="586" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F586" s="2"/>
+      <c r="G586"/>
+      <c r="H586"/>
+      <c r="I586" s="1"/>
+      <c r="J586" s="1"/>
+    </row>
+    <row r="587" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F587" s="2"/>
+      <c r="G587"/>
+      <c r="H587"/>
+      <c r="I587" s="1"/>
+      <c r="J587" s="1"/>
+    </row>
+    <row r="588" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F588" s="2"/>
+      <c r="G588"/>
+      <c r="H588"/>
+      <c r="I588" s="1"/>
+      <c r="J588" s="1"/>
+    </row>
+    <row r="589" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F589" s="2"/>
+      <c r="G589"/>
+      <c r="H589"/>
+      <c r="I589" s="1"/>
+      <c r="J589" s="1"/>
+    </row>
+    <row r="590" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F590" s="2"/>
+      <c r="G590"/>
+      <c r="H590"/>
+      <c r="I590" s="1"/>
+      <c r="J590" s="1"/>
+    </row>
+    <row r="591" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F591" s="2"/>
+      <c r="G591"/>
+      <c r="H591"/>
+      <c r="I591" s="1"/>
+      <c r="J591" s="1"/>
+    </row>
+    <row r="592" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F592" s="2"/>
+      <c r="G592"/>
+      <c r="H592"/>
+      <c r="I592" s="1"/>
+      <c r="J592" s="1"/>
+    </row>
+    <row r="593" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F593" s="2"/>
+      <c r="G593"/>
+      <c r="H593"/>
+      <c r="I593" s="1"/>
+      <c r="J593" s="1"/>
+    </row>
+    <row r="594" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F594" s="2"/>
+      <c r="G594"/>
+      <c r="H594"/>
+      <c r="I594" s="1"/>
+      <c r="J594" s="1"/>
+    </row>
+    <row r="595" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F595" s="2"/>
+      <c r="G595"/>
+      <c r="H595"/>
+      <c r="I595" s="1"/>
+      <c r="J595" s="1"/>
+    </row>
+    <row r="596" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F596" s="2"/>
+      <c r="G596"/>
+      <c r="H596"/>
+      <c r="I596" s="1"/>
+      <c r="J596" s="1"/>
+    </row>
+    <row r="597" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F597" s="2"/>
+      <c r="G597"/>
+      <c r="H597"/>
+      <c r="I597" s="1"/>
+      <c r="J597" s="1"/>
+    </row>
+    <row r="598" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F598" s="2"/>
+      <c r="G598"/>
+      <c r="H598"/>
+      <c r="I598" s="1"/>
+      <c r="J598" s="1"/>
+    </row>
+    <row r="599" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F599" s="2"/>
+      <c r="G599"/>
+      <c r="H599"/>
+      <c r="I599" s="1"/>
+      <c r="J599" s="1"/>
+    </row>
+    <row r="600" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F600" s="2"/>
+      <c r="G600"/>
+      <c r="H600"/>
+      <c r="I600" s="1"/>
+      <c r="J600" s="1"/>
+    </row>
+    <row r="601" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F601" s="2"/>
+      <c r="G601"/>
+      <c r="H601"/>
+      <c r="I601" s="1"/>
+      <c r="J601" s="1"/>
+    </row>
+    <row r="602" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F602" s="2"/>
+      <c r="G602"/>
+      <c r="H602"/>
+      <c r="I602" s="1"/>
+      <c r="J602" s="1"/>
+    </row>
+    <row r="603" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F603" s="2"/>
+      <c r="G603"/>
+      <c r="H603"/>
+      <c r="I603" s="1"/>
+      <c r="J603" s="1"/>
+    </row>
+    <row r="604" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F604" s="2"/>
+      <c r="G604"/>
+      <c r="H604"/>
+      <c r="I604" s="1"/>
+      <c r="J604" s="1"/>
+    </row>
+    <row r="605" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F605" s="2"/>
+      <c r="G605"/>
+      <c r="H605"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="1"/>
+    </row>
+    <row r="606" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F606" s="2"/>
+      <c r="G606"/>
+      <c r="H606"/>
+      <c r="I606" s="1"/>
+      <c r="J606" s="1"/>
+    </row>
+    <row r="607" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F607" s="2"/>
+      <c r="G607"/>
+      <c r="H607"/>
+      <c r="I607" s="1"/>
+      <c r="J607" s="1"/>
+    </row>
+    <row r="608" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F608" s="2"/>
+      <c r="G608"/>
+      <c r="H608"/>
+      <c r="I608" s="1"/>
+      <c r="J608" s="1"/>
+    </row>
+    <row r="609" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F609" s="2"/>
+      <c r="G609"/>
+      <c r="H609"/>
+      <c r="I609" s="1"/>
+      <c r="J609" s="1"/>
+    </row>
+    <row r="610" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F610" s="2"/>
+      <c r="G610"/>
+      <c r="H610"/>
+      <c r="I610" s="1"/>
+      <c r="J610" s="1"/>
+    </row>
+    <row r="611" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F611" s="2"/>
+      <c r="G611"/>
+      <c r="H611"/>
+      <c r="I611" s="1"/>
+      <c r="J611" s="1"/>
+    </row>
+    <row r="612" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F612" s="2"/>
+      <c r="G612"/>
+      <c r="H612"/>
+      <c r="I612" s="1"/>
+      <c r="J612" s="1"/>
+    </row>
+    <row r="613" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F613" s="2"/>
+      <c r="G613"/>
+      <c r="H613"/>
+      <c r="I613" s="1"/>
+      <c r="J613" s="1"/>
+    </row>
+    <row r="614" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F614" s="2"/>
+      <c r="G614"/>
+      <c r="H614"/>
+      <c r="I614" s="1"/>
+      <c r="J614" s="1"/>
+    </row>
+    <row r="615" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F615" s="2"/>
+      <c r="G615"/>
+      <c r="H615"/>
+      <c r="I615" s="1"/>
+      <c r="J615" s="1"/>
+    </row>
+    <row r="616" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F616" s="2"/>
+      <c r="G616"/>
+      <c r="H616"/>
+      <c r="I616" s="1"/>
+      <c r="J616" s="1"/>
+    </row>
+    <row r="617" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F617" s="2"/>
+      <c r="G617"/>
+      <c r="H617"/>
+      <c r="I617" s="1"/>
+      <c r="J617" s="1"/>
+    </row>
+    <row r="618" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F618" s="2"/>
+      <c r="G618"/>
+      <c r="H618"/>
+      <c r="I618" s="1"/>
+      <c r="J618" s="1"/>
+    </row>
+    <row r="619" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F619" s="2"/>
+      <c r="G619"/>
+      <c r="H619"/>
+      <c r="I619" s="1"/>
+      <c r="J619" s="1"/>
+    </row>
+    <row r="620" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F620" s="2"/>
+      <c r="G620"/>
+      <c r="H620"/>
+      <c r="I620" s="1"/>
+      <c r="J620" s="1"/>
+    </row>
+    <row r="621" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F621" s="2"/>
+      <c r="G621"/>
+      <c r="H621"/>
+      <c r="I621" s="1"/>
+      <c r="J621" s="1"/>
+    </row>
+    <row r="622" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F622" s="2"/>
+      <c r="G622"/>
+      <c r="H622"/>
+      <c r="I622" s="1"/>
+      <c r="J622" s="1"/>
+    </row>
+    <row r="623" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F623" s="2"/>
+      <c r="G623"/>
+      <c r="H623"/>
+      <c r="I623" s="1"/>
+      <c r="J623" s="1"/>
+    </row>
+    <row r="624" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F624" s="2"/>
+      <c r="G624"/>
+      <c r="H624"/>
+      <c r="I624" s="1"/>
+      <c r="J624" s="1"/>
+    </row>
+    <row r="625" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F625" s="2"/>
+      <c r="G625"/>
+      <c r="H625"/>
+      <c r="I625" s="1"/>
+      <c r="J625" s="1"/>
+    </row>
+    <row r="626" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F626" s="2"/>
+      <c r="G626"/>
+      <c r="H626"/>
+      <c r="I626" s="1"/>
+      <c r="J626" s="1"/>
+    </row>
+    <row r="627" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F627" s="2"/>
+      <c r="G627"/>
+      <c r="H627"/>
+      <c r="I627" s="1"/>
+      <c r="J627" s="1"/>
+    </row>
+    <row r="628" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F628" s="2"/>
+      <c r="G628"/>
+      <c r="H628"/>
+      <c r="I628" s="1"/>
+      <c r="J628" s="1"/>
+    </row>
+    <row r="629" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F629" s="2"/>
+      <c r="G629"/>
+      <c r="H629"/>
+      <c r="I629" s="1"/>
+      <c r="J629" s="1"/>
+    </row>
+    <row r="630" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F630" s="2"/>
+      <c r="G630"/>
+      <c r="H630"/>
+      <c r="I630" s="1"/>
+      <c r="J630" s="1"/>
+    </row>
+    <row r="631" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F631" s="2"/>
+      <c r="G631"/>
+      <c r="H631"/>
+      <c r="I631" s="1"/>
+      <c r="J631" s="1"/>
+    </row>
+    <row r="632" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F632" s="2"/>
+      <c r="G632"/>
+      <c r="H632"/>
+      <c r="I632" s="1"/>
+      <c r="J632" s="1"/>
+    </row>
+    <row r="633" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F633" s="2"/>
+      <c r="G633"/>
+      <c r="H633"/>
+      <c r="I633" s="1"/>
+      <c r="J633" s="1"/>
+    </row>
+    <row r="634" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F634" s="2"/>
+      <c r="G634"/>
+      <c r="H634"/>
+      <c r="I634" s="1"/>
+      <c r="J634" s="1"/>
+    </row>
+    <row r="635" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F635" s="2"/>
+      <c r="G635"/>
+      <c r="H635"/>
+      <c r="I635" s="1"/>
+      <c r="J635" s="1"/>
+    </row>
+    <row r="636" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F636" s="2"/>
+      <c r="G636"/>
+      <c r="H636"/>
+      <c r="I636" s="1"/>
+      <c r="J636" s="1"/>
+    </row>
+    <row r="637" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F637" s="2"/>
+      <c r="G637"/>
+      <c r="H637"/>
+      <c r="I637" s="1"/>
+      <c r="J637" s="1"/>
+    </row>
+    <row r="638" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F638" s="2"/>
+      <c r="G638"/>
+      <c r="H638"/>
+      <c r="I638" s="1"/>
+      <c r="J638" s="1"/>
+    </row>
+    <row r="639" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F639" s="2"/>
+      <c r="G639"/>
+      <c r="H639"/>
+      <c r="I639" s="1"/>
+      <c r="J639" s="1"/>
+    </row>
+    <row r="640" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F640" s="2"/>
+      <c r="G640"/>
+      <c r="H640"/>
+      <c r="I640" s="1"/>
+      <c r="J640" s="1"/>
+    </row>
+    <row r="641" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F641" s="2"/>
+      <c r="G641"/>
+      <c r="H641"/>
+      <c r="I641" s="1"/>
+      <c r="J641" s="1"/>
+    </row>
+    <row r="642" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F642" s="2"/>
+      <c r="G642"/>
+      <c r="H642"/>
+      <c r="I642" s="1"/>
+      <c r="J642" s="1"/>
+    </row>
+    <row r="643" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F643" s="2"/>
+      <c r="G643"/>
+      <c r="H643"/>
+      <c r="I643" s="1"/>
+      <c r="J643" s="1"/>
+    </row>
+    <row r="644" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F644" s="2"/>
+      <c r="G644"/>
+      <c r="H644"/>
+      <c r="I644" s="1"/>
+      <c r="J644" s="1"/>
+    </row>
+    <row r="645" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F645" s="2"/>
+      <c r="G645"/>
+      <c r="H645"/>
+      <c r="I645" s="1"/>
+      <c r="J645" s="1"/>
+    </row>
+    <row r="646" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F646" s="2"/>
+      <c r="G646"/>
+      <c r="H646"/>
+      <c r="I646" s="1"/>
+      <c r="J646" s="1"/>
+    </row>
+    <row r="647" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F647" s="2"/>
+      <c r="G647"/>
+      <c r="H647"/>
+      <c r="I647" s="1"/>
+      <c r="J647" s="1"/>
+    </row>
+    <row r="648" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F648" s="2"/>
+      <c r="G648"/>
+      <c r="H648"/>
+      <c r="I648" s="1"/>
+      <c r="J648" s="1"/>
+    </row>
+    <row r="649" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F649" s="2"/>
+      <c r="G649"/>
+      <c r="H649"/>
+      <c r="I649" s="1"/>
+      <c r="J649" s="1"/>
+    </row>
+    <row r="650" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F650" s="2"/>
+      <c r="G650"/>
+      <c r="H650"/>
+      <c r="I650" s="1"/>
+      <c r="J650" s="1"/>
+    </row>
+    <row r="651" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F651" s="2"/>
+      <c r="G651"/>
+      <c r="H651"/>
+      <c r="I651" s="1"/>
+      <c r="J651" s="1"/>
+    </row>
+    <row r="652" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F652" s="2"/>
+      <c r="G652"/>
+      <c r="H652"/>
+      <c r="I652" s="1"/>
+      <c r="J652" s="1"/>
+    </row>
+    <row r="653" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F653" s="2"/>
+      <c r="G653"/>
+      <c r="H653"/>
+      <c r="I653" s="1"/>
+      <c r="J653" s="1"/>
+    </row>
+    <row r="654" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F654" s="2"/>
+      <c r="G654"/>
+      <c r="H654"/>
+      <c r="I654" s="1"/>
+      <c r="J654" s="1"/>
+    </row>
+    <row r="655" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F655" s="2"/>
+      <c r="G655"/>
+      <c r="H655"/>
+      <c r="I655" s="1"/>
+      <c r="J655" s="1"/>
+    </row>
+    <row r="656" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F656" s="2"/>
+      <c r="G656"/>
+      <c r="H656"/>
+      <c r="I656" s="1"/>
+      <c r="J656" s="1"/>
+    </row>
+    <row r="657" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F657" s="2"/>
+      <c r="G657"/>
+      <c r="H657"/>
+      <c r="I657" s="1"/>
+      <c r="J657" s="1"/>
+    </row>
+    <row r="658" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F658" s="2"/>
+      <c r="G658"/>
+      <c r="H658"/>
+      <c r="I658" s="1"/>
+      <c r="J658" s="1"/>
+    </row>
+    <row r="659" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F659" s="2"/>
+      <c r="G659"/>
+      <c r="H659"/>
+      <c r="I659" s="1"/>
+      <c r="J659" s="1"/>
+    </row>
+    <row r="660" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F660" s="2"/>
+      <c r="G660"/>
+      <c r="H660"/>
+      <c r="I660" s="1"/>
+      <c r="J660" s="1"/>
+    </row>
+    <row r="661" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F661" s="2"/>
+      <c r="G661"/>
+      <c r="H661"/>
+      <c r="I661" s="1"/>
+      <c r="J661" s="1"/>
+    </row>
+    <row r="662" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F662" s="2"/>
+      <c r="G662"/>
+      <c r="H662"/>
+      <c r="I662" s="1"/>
+      <c r="J662" s="1"/>
+    </row>
+    <row r="663" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F663" s="2"/>
+      <c r="G663"/>
+      <c r="H663"/>
+      <c r="I663" s="1"/>
+      <c r="J663" s="1"/>
+    </row>
+    <row r="664" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F664" s="2"/>
+      <c r="G664"/>
+      <c r="H664"/>
+      <c r="I664" s="1"/>
+      <c r="J664" s="1"/>
+    </row>
+    <row r="665" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F665" s="2"/>
+      <c r="G665"/>
+      <c r="H665"/>
+      <c r="I665" s="1"/>
+      <c r="J665" s="1"/>
+    </row>
+    <row r="666" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F666" s="2"/>
+      <c r="G666"/>
+      <c r="H666"/>
+      <c r="I666" s="1"/>
+      <c r="J666" s="1"/>
+    </row>
+    <row r="667" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F667" s="2"/>
+      <c r="G667"/>
+      <c r="H667"/>
+      <c r="I667" s="1"/>
+      <c r="J667" s="1"/>
+    </row>
+    <row r="668" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F668" s="2"/>
+      <c r="G668"/>
+      <c r="H668"/>
+      <c r="I668" s="1"/>
+      <c r="J668" s="1"/>
+    </row>
+    <row r="669" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F669" s="2"/>
+      <c r="G669"/>
+      <c r="H669"/>
+      <c r="I669" s="1"/>
+      <c r="J669" s="1"/>
+    </row>
+    <row r="670" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F670" s="2"/>
+      <c r="G670"/>
+      <c r="H670"/>
+      <c r="I670" s="1"/>
+      <c r="J670" s="1"/>
+    </row>
+    <row r="671" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F671" s="2"/>
+      <c r="G671"/>
+      <c r="H671"/>
+      <c r="I671" s="1"/>
+      <c r="J671" s="1"/>
+    </row>
+    <row r="672" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F672" s="2"/>
+      <c r="G672"/>
+      <c r="H672"/>
+      <c r="I672" s="1"/>
+      <c r="J672" s="1"/>
+    </row>
+    <row r="673" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F673" s="2"/>
+      <c r="G673"/>
+      <c r="H673"/>
+      <c r="I673" s="1"/>
+      <c r="J673" s="1"/>
+    </row>
+    <row r="674" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F674" s="2"/>
+      <c r="G674"/>
+      <c r="H674"/>
+      <c r="I674" s="1"/>
+      <c r="J674" s="1"/>
+    </row>
+    <row r="675" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F675" s="2"/>
+      <c r="G675"/>
+      <c r="H675"/>
+      <c r="I675" s="1"/>
+      <c r="J675" s="1"/>
+    </row>
+    <row r="676" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F676" s="2"/>
+      <c r="G676"/>
+      <c r="H676"/>
+      <c r="I676" s="1"/>
+      <c r="J676" s="1"/>
+    </row>
+    <row r="677" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F677" s="2"/>
+      <c r="G677"/>
+      <c r="H677"/>
+      <c r="I677" s="1"/>
+      <c r="J677" s="1"/>
+    </row>
+    <row r="678" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F678" s="2"/>
+      <c r="G678"/>
+      <c r="H678"/>
+      <c r="I678" s="1"/>
+      <c r="J678" s="1"/>
+    </row>
+    <row r="679" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F679" s="2"/>
+      <c r="G679"/>
+      <c r="H679"/>
+      <c r="I679" s="1"/>
+      <c r="J679" s="1"/>
+    </row>
+    <row r="680" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F680" s="2"/>
+      <c r="G680"/>
+      <c r="H680"/>
+      <c r="I680" s="1"/>
+      <c r="J680" s="1"/>
+    </row>
+    <row r="681" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F681" s="2"/>
+      <c r="G681"/>
+      <c r="H681"/>
+      <c r="I681" s="1"/>
+      <c r="J681" s="1"/>
+    </row>
+    <row r="682" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F682" s="2"/>
+      <c r="G682"/>
+      <c r="H682"/>
+      <c r="I682" s="1"/>
+      <c r="J682" s="1"/>
+    </row>
+    <row r="683" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F683" s="2"/>
+      <c r="G683"/>
+      <c r="H683"/>
+      <c r="I683" s="1"/>
+      <c r="J683" s="1"/>
+    </row>
+    <row r="684" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F684" s="2"/>
+      <c r="G684"/>
+      <c r="H684"/>
+      <c r="I684" s="1"/>
+      <c r="J684" s="1"/>
+    </row>
+    <row r="685" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F685" s="2"/>
+      <c r="G685"/>
+      <c r="H685"/>
+      <c r="I685" s="1"/>
+      <c r="J685" s="1"/>
+    </row>
+    <row r="686" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F686" s="2"/>
+      <c r="G686"/>
+      <c r="H686"/>
+      <c r="I686" s="1"/>
+      <c r="J686" s="1"/>
+    </row>
+    <row r="687" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F687" s="2"/>
+      <c r="G687"/>
+      <c r="H687"/>
+      <c r="I687" s="1"/>
+      <c r="J687" s="1"/>
+    </row>
+    <row r="688" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F688" s="2"/>
+      <c r="G688"/>
+      <c r="H688"/>
+      <c r="I688" s="1"/>
+      <c r="J688" s="1"/>
+    </row>
+    <row r="689" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F689" s="2"/>
+      <c r="G689"/>
+      <c r="H689"/>
+      <c r="I689" s="1"/>
+      <c r="J689" s="1"/>
+    </row>
+    <row r="690" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F690" s="2"/>
+      <c r="G690"/>
+      <c r="H690"/>
+      <c r="I690" s="1"/>
+      <c r="J690" s="1"/>
+    </row>
+    <row r="691" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F691" s="2"/>
+      <c r="G691"/>
+      <c r="H691"/>
+      <c r="I691" s="1"/>
+      <c r="J691" s="1"/>
+    </row>
+    <row r="692" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F692" s="2"/>
+      <c r="G692"/>
+      <c r="H692"/>
+      <c r="I692" s="1"/>
+      <c r="J692" s="1"/>
+    </row>
+    <row r="693" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F693" s="2"/>
+      <c r="G693"/>
+      <c r="H693"/>
+      <c r="I693" s="1"/>
+      <c r="J693" s="1"/>
+    </row>
+    <row r="694" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F694" s="2"/>
+      <c r="G694"/>
+      <c r="H694"/>
+      <c r="I694" s="1"/>
+      <c r="J694" s="1"/>
+    </row>
+    <row r="695" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F695" s="2"/>
+      <c r="G695"/>
+      <c r="H695"/>
+      <c r="I695" s="1"/>
+      <c r="J695" s="1"/>
+    </row>
+    <row r="696" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F696" s="2"/>
+      <c r="G696"/>
+      <c r="H696"/>
+      <c r="I696" s="1"/>
+      <c r="J696" s="1"/>
+    </row>
+    <row r="697" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F697" s="2"/>
+      <c r="G697"/>
+      <c r="H697"/>
+      <c r="I697" s="1"/>
+      <c r="J697" s="1"/>
+    </row>
+    <row r="698" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F698" s="2"/>
+      <c r="G698"/>
+      <c r="H698"/>
+      <c r="I698" s="1"/>
+      <c r="J698" s="1"/>
+    </row>
+    <row r="699" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F699" s="2"/>
+      <c r="G699"/>
+      <c r="H699"/>
+      <c r="I699" s="1"/>
+      <c r="J699" s="1"/>
+    </row>
+    <row r="700" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F700" s="2"/>
+      <c r="G700"/>
+      <c r="H700"/>
+      <c r="I700" s="1"/>
+      <c r="J700" s="1"/>
+    </row>
+    <row r="701" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F701" s="2"/>
+      <c r="G701"/>
+      <c r="H701"/>
+      <c r="I701" s="1"/>
+      <c r="J701" s="1"/>
+    </row>
+    <row r="702" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F702" s="2"/>
+      <c r="G702"/>
+      <c r="H702"/>
+      <c r="I702" s="1"/>
+      <c r="J702" s="1"/>
+    </row>
+    <row r="703" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F703" s="2"/>
+      <c r="G703"/>
+      <c r="H703"/>
+      <c r="I703" s="1"/>
+      <c r="J703" s="1"/>
+    </row>
+    <row r="704" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F704" s="2"/>
+      <c r="G704"/>
+      <c r="H704"/>
+      <c r="I704" s="1"/>
+      <c r="J704" s="1"/>
+    </row>
+    <row r="705" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F705" s="2"/>
+      <c r="G705"/>
+      <c r="H705"/>
+      <c r="I705" s="1"/>
+      <c r="J705" s="1"/>
+    </row>
+    <row r="706" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F706" s="2"/>
+      <c r="G706"/>
+      <c r="H706"/>
+      <c r="I706" s="1"/>
+      <c r="J706" s="1"/>
+    </row>
+    <row r="707" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F707" s="2"/>
+      <c r="G707"/>
+      <c r="H707"/>
+      <c r="I707" s="1"/>
+      <c r="J707" s="1"/>
+    </row>
+    <row r="708" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F708" s="2"/>
+      <c r="G708"/>
+      <c r="H708"/>
+      <c r="I708" s="1"/>
+      <c r="J708" s="1"/>
+    </row>
+    <row r="709" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F709" s="2"/>
+      <c r="G709"/>
+      <c r="H709"/>
+      <c r="I709" s="1"/>
+      <c r="J709" s="1"/>
+    </row>
+    <row r="710" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F710" s="2"/>
+      <c r="G710"/>
+      <c r="H710"/>
+      <c r="I710" s="1"/>
+      <c r="J710" s="1"/>
+    </row>
+    <row r="711" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F711" s="2"/>
+      <c r="G711"/>
+      <c r="H711"/>
+      <c r="I711" s="1"/>
+      <c r="J711" s="1"/>
+    </row>
+    <row r="712" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F712" s="2"/>
+      <c r="G712"/>
+      <c r="H712"/>
+      <c r="I712" s="1"/>
+      <c r="J712" s="1"/>
+    </row>
+    <row r="713" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F713" s="2"/>
+      <c r="G713"/>
+      <c r="H713"/>
+      <c r="I713" s="1"/>
+      <c r="J713" s="1"/>
+    </row>
+    <row r="714" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F714" s="2"/>
+      <c r="G714"/>
+      <c r="H714"/>
+      <c r="I714" s="1"/>
+      <c r="J714" s="1"/>
+    </row>
+    <row r="715" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F715" s="2"/>
+      <c r="G715"/>
+      <c r="H715"/>
+      <c r="I715" s="1"/>
+      <c r="J715" s="1"/>
+    </row>
+    <row r="716" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F716" s="2"/>
+      <c r="G716"/>
+      <c r="H716"/>
+      <c r="I716" s="1"/>
+      <c r="J716" s="1"/>
+    </row>
+    <row r="717" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F717" s="2"/>
+      <c r="G717"/>
+      <c r="H717"/>
+      <c r="I717" s="1"/>
+      <c r="J717" s="1"/>
+    </row>
+    <row r="718" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F718" s="2"/>
+      <c r="G718"/>
+      <c r="H718"/>
+      <c r="I718" s="1"/>
+      <c r="J718" s="1"/>
+    </row>
+    <row r="719" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F719" s="2"/>
+      <c r="G719"/>
+      <c r="H719"/>
+      <c r="I719" s="1"/>
+      <c r="J719" s="1"/>
+    </row>
+    <row r="720" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F720" s="2"/>
+      <c r="G720"/>
+      <c r="H720"/>
+      <c r="I720" s="1"/>
+      <c r="J720" s="1"/>
+    </row>
+    <row r="721" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F721" s="2"/>
+      <c r="G721"/>
+      <c r="H721"/>
+      <c r="I721" s="1"/>
+      <c r="J721" s="1"/>
+    </row>
+    <row r="722" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F722" s="2"/>
+      <c r="G722"/>
+      <c r="H722"/>
+      <c r="I722" s="1"/>
+      <c r="J722" s="1"/>
+    </row>
+    <row r="723" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F723" s="2"/>
+      <c r="G723"/>
+      <c r="H723"/>
+      <c r="I723" s="1"/>
+      <c r="J723" s="1"/>
+    </row>
+    <row r="724" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F724" s="2"/>
+      <c r="G724"/>
+      <c r="H724"/>
+      <c r="I724" s="1"/>
+      <c r="J724" s="1"/>
+    </row>
+    <row r="725" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F725" s="2"/>
+      <c r="G725"/>
+      <c r="H725"/>
+      <c r="I725" s="1"/>
+      <c r="J725" s="1"/>
+    </row>
+    <row r="726" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F726" s="2"/>
+      <c r="G726"/>
+      <c r="H726"/>
+      <c r="I726" s="1"/>
+      <c r="J726" s="1"/>
+    </row>
+    <row r="727" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F727" s="2"/>
+      <c r="G727"/>
+      <c r="H727"/>
+      <c r="I727" s="1"/>
+      <c r="J727" s="1"/>
+    </row>
+    <row r="728" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F728" s="2"/>
+      <c r="G728"/>
+      <c r="H728"/>
+      <c r="I728" s="1"/>
+      <c r="J728" s="1"/>
+    </row>
+    <row r="729" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F729" s="2"/>
+      <c r="G729"/>
+      <c r="H729"/>
+      <c r="I729" s="1"/>
+      <c r="J729" s="1"/>
+    </row>
+    <row r="730" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F730" s="2"/>
+      <c r="G730"/>
+      <c r="H730"/>
+      <c r="I730" s="1"/>
+      <c r="J730" s="1"/>
+    </row>
+    <row r="731" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F731" s="2"/>
+      <c r="G731"/>
+      <c r="H731"/>
+      <c r="I731" s="1"/>
+      <c r="J731" s="1"/>
+    </row>
+    <row r="732" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F732" s="2"/>
+      <c r="G732"/>
+      <c r="H732"/>
+      <c r="I732" s="1"/>
+      <c r="J732" s="1"/>
+    </row>
+    <row r="733" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F733" s="2"/>
+      <c r="G733"/>
+      <c r="H733"/>
+      <c r="I733" s="1"/>
+      <c r="J733" s="1"/>
+    </row>
+    <row r="734" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F734" s="2"/>
+      <c r="G734"/>
+      <c r="H734"/>
+      <c r="I734" s="1"/>
+      <c r="J734" s="1"/>
+    </row>
+    <row r="735" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F735" s="2"/>
+      <c r="G735"/>
+      <c r="H735"/>
+      <c r="I735" s="1"/>
+      <c r="J735" s="1"/>
+    </row>
+    <row r="736" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F736" s="2"/>
+      <c r="G736"/>
+      <c r="H736"/>
+      <c r="I736" s="1"/>
+      <c r="J736" s="1"/>
+    </row>
+    <row r="737" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F737" s="2"/>
+      <c r="G737"/>
+      <c r="H737"/>
+      <c r="I737" s="1"/>
+      <c r="J737" s="1"/>
+    </row>
+    <row r="738" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F738" s="2"/>
+      <c r="G738"/>
+      <c r="H738"/>
+      <c r="I738" s="1"/>
+      <c r="J738" s="1"/>
+    </row>
+    <row r="739" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F739" s="2"/>
+      <c r="G739"/>
+      <c r="H739"/>
+      <c r="I739" s="1"/>
+      <c r="J739" s="1"/>
+    </row>
+    <row r="740" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F740" s="2"/>
+      <c r="G740"/>
+      <c r="H740"/>
+      <c r="I740" s="1"/>
+      <c r="J740" s="1"/>
+    </row>
+    <row r="741" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F741" s="2"/>
+      <c r="G741"/>
+      <c r="H741"/>
+      <c r="I741" s="1"/>
+      <c r="J741" s="1"/>
+    </row>
+    <row r="742" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F742" s="2"/>
+      <c r="G742"/>
+      <c r="H742"/>
+      <c r="I742" s="1"/>
+      <c r="J742" s="1"/>
+    </row>
+    <row r="743" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F743" s="2"/>
+      <c r="G743"/>
+      <c r="H743"/>
+      <c r="I743" s="1"/>
+      <c r="J743" s="1"/>
+    </row>
+    <row r="744" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F744" s="2"/>
+      <c r="G744"/>
+      <c r="H744"/>
+      <c r="I744" s="1"/>
+      <c r="J744" s="1"/>
+    </row>
+    <row r="745" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F745" s="2"/>
+      <c r="G745"/>
+      <c r="H745"/>
+      <c r="I745" s="1"/>
+      <c r="J745" s="1"/>
+    </row>
+    <row r="746" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F746" s="2"/>
+      <c r="G746"/>
+      <c r="H746"/>
+      <c r="I746" s="1"/>
+      <c r="J746" s="1"/>
+    </row>
+    <row r="747" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F747" s="2"/>
+      <c r="G747"/>
+      <c r="H747"/>
+      <c r="I747" s="1"/>
+      <c r="J747" s="1"/>
+    </row>
+    <row r="748" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F748" s="2"/>
+      <c r="G748"/>
+      <c r="H748"/>
+      <c r="I748" s="1"/>
+      <c r="J748" s="1"/>
+    </row>
+    <row r="749" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F749" s="2"/>
+      <c r="G749"/>
+      <c r="H749"/>
+      <c r="I749" s="1"/>
+      <c r="J749" s="1"/>
+    </row>
+    <row r="750" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F750" s="2"/>
+      <c r="G750"/>
+      <c r="H750"/>
+      <c r="I750" s="1"/>
+      <c r="J750" s="1"/>
+    </row>
+    <row r="751" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F751" s="2"/>
+      <c r="G751"/>
+      <c r="H751"/>
+      <c r="I751" s="1"/>
+      <c r="J751" s="1"/>
+    </row>
+    <row r="752" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F752" s="2"/>
+      <c r="G752"/>
+      <c r="H752"/>
+      <c r="I752" s="1"/>
+      <c r="J752" s="1"/>
+    </row>
+    <row r="753" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F753" s="2"/>
+      <c r="G753"/>
+      <c r="H753"/>
+      <c r="I753" s="1"/>
+      <c r="J753" s="1"/>
+    </row>
+    <row r="754" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F754" s="2"/>
+      <c r="G754"/>
+      <c r="H754"/>
+      <c r="I754" s="1"/>
+      <c r="J754" s="1"/>
+    </row>
+    <row r="755" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F755" s="2"/>
+      <c r="G755"/>
+      <c r="H755"/>
+      <c r="I755" s="1"/>
+      <c r="J755" s="1"/>
+    </row>
+    <row r="756" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F756" s="2"/>
+      <c r="G756"/>
+      <c r="H756"/>
+      <c r="I756" s="1"/>
+      <c r="J756" s="1"/>
+    </row>
+    <row r="757" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F757" s="2"/>
+      <c r="G757"/>
+      <c r="H757"/>
+      <c r="I757" s="1"/>
+      <c r="J757" s="1"/>
+    </row>
+    <row r="758" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F758" s="2"/>
+      <c r="G758"/>
+      <c r="H758"/>
+      <c r="I758" s="1"/>
+      <c r="J758" s="1"/>
+    </row>
+    <row r="759" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F759" s="2"/>
+      <c r="G759"/>
+      <c r="H759"/>
+      <c r="I759" s="1"/>
+      <c r="J759" s="1"/>
+    </row>
+    <row r="760" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F760" s="2"/>
+      <c r="G760"/>
+      <c r="H760"/>
+      <c r="I760" s="1"/>
+      <c r="J760" s="1"/>
+    </row>
+    <row r="761" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F761" s="2"/>
+      <c r="G761"/>
+      <c r="H761"/>
+      <c r="I761" s="1"/>
+      <c r="J761" s="1"/>
+    </row>
+    <row r="762" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F762" s="2"/>
+      <c r="G762"/>
+      <c r="H762"/>
+      <c r="I762" s="1"/>
+      <c r="J762" s="1"/>
+    </row>
+    <row r="763" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F763" s="2"/>
+      <c r="G763"/>
+      <c r="H763"/>
+      <c r="I763" s="1"/>
+      <c r="J763" s="1"/>
+    </row>
+    <row r="764" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F764" s="2"/>
+      <c r="G764"/>
+      <c r="H764"/>
+      <c r="I764" s="1"/>
+      <c r="J764" s="1"/>
+    </row>
+    <row r="765" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F765" s="2"/>
+      <c r="G765"/>
+      <c r="H765"/>
+      <c r="I765" s="1"/>
+      <c r="J765" s="1"/>
+    </row>
+    <row r="766" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F766" s="2"/>
+      <c r="G766"/>
+      <c r="H766"/>
+      <c r="I766" s="1"/>
+      <c r="J766" s="1"/>
+    </row>
+    <row r="767" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F767" s="2"/>
+      <c r="G767"/>
+      <c r="H767"/>
+      <c r="I767" s="1"/>
+      <c r="J767" s="1"/>
+    </row>
+    <row r="768" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F768" s="2"/>
+      <c r="G768"/>
+      <c r="H768"/>
+      <c r="I768" s="1"/>
+      <c r="J768" s="1"/>
+    </row>
+    <row r="769" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F769" s="2"/>
+      <c r="G769"/>
+      <c r="H769"/>
+      <c r="I769" s="1"/>
+      <c r="J769" s="1"/>
+    </row>
+    <row r="770" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F770" s="2"/>
+      <c r="G770"/>
+      <c r="H770"/>
+      <c r="I770" s="1"/>
+      <c r="J770" s="1"/>
+    </row>
+    <row r="771" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F771" s="2"/>
+      <c r="G771"/>
+      <c r="H771"/>
+      <c r="I771" s="1"/>
+      <c r="J771" s="1"/>
+    </row>
+    <row r="772" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F772" s="2"/>
+      <c r="G772"/>
+      <c r="H772"/>
+      <c r="I772" s="1"/>
+      <c r="J772" s="1"/>
+    </row>
+    <row r="773" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F773" s="2"/>
+      <c r="G773"/>
+      <c r="H773"/>
+      <c r="I773" s="1"/>
+      <c r="J773" s="1"/>
+    </row>
+    <row r="774" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F774" s="2"/>
+      <c r="G774"/>
+      <c r="H774"/>
+      <c r="I774" s="1"/>
+      <c r="J774" s="1"/>
+    </row>
+    <row r="775" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F775" s="2"/>
+      <c r="G775"/>
+      <c r="H775"/>
+      <c r="I775" s="1"/>
+      <c r="J775" s="1"/>
+    </row>
+    <row r="776" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F776" s="2"/>
+      <c r="G776"/>
+      <c r="H776"/>
+      <c r="I776" s="1"/>
+      <c r="J776" s="1"/>
+    </row>
+    <row r="777" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F777" s="2"/>
+      <c r="G777"/>
+      <c r="H777"/>
+      <c r="I777" s="1"/>
+      <c r="J777" s="1"/>
+    </row>
+    <row r="778" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F778" s="2"/>
+      <c r="G778"/>
+      <c r="H778"/>
+      <c r="I778" s="1"/>
+      <c r="J778" s="1"/>
+    </row>
+    <row r="779" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F779" s="2"/>
+      <c r="G779"/>
+      <c r="H779"/>
+      <c r="I779" s="1"/>
+      <c r="J779" s="1"/>
+    </row>
+    <row r="780" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F780" s="2"/>
+      <c r="G780"/>
+      <c r="H780"/>
+      <c r="I780" s="1"/>
+      <c r="J780" s="1"/>
+    </row>
+    <row r="781" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F781" s="2"/>
+      <c r="G781"/>
+      <c r="H781"/>
+      <c r="I781" s="1"/>
+      <c r="J781" s="1"/>
+    </row>
+    <row r="782" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F782" s="2"/>
+      <c r="G782"/>
+      <c r="H782"/>
+      <c r="I782" s="1"/>
+      <c r="J782" s="1"/>
+    </row>
+    <row r="783" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F783" s="2"/>
+      <c r="G783"/>
+      <c r="H783"/>
+      <c r="I783" s="1"/>
+      <c r="J783" s="1"/>
+    </row>
+    <row r="784" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F784" s="2"/>
+      <c r="G784"/>
+      <c r="H784"/>
+      <c r="I784" s="1"/>
+      <c r="J784" s="1"/>
+    </row>
+    <row r="785" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F785" s="2"/>
+      <c r="G785"/>
+      <c r="H785"/>
+      <c r="I785" s="1"/>
+      <c r="J785" s="1"/>
+    </row>
+    <row r="786" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F786" s="2"/>
+      <c r="G786"/>
+      <c r="H786"/>
+      <c r="I786" s="1"/>
+      <c r="J786" s="1"/>
+    </row>
+    <row r="787" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F787" s="2"/>
+      <c r="G787"/>
+      <c r="H787"/>
+      <c r="I787" s="1"/>
+      <c r="J787" s="1"/>
+    </row>
+    <row r="788" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F788" s="2"/>
+      <c r="G788"/>
+      <c r="H788"/>
+      <c r="I788" s="1"/>
+      <c r="J788" s="1"/>
+    </row>
+    <row r="789" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F789" s="2"/>
+      <c r="G789"/>
+      <c r="H789"/>
+      <c r="I789" s="1"/>
+      <c r="J789" s="1"/>
+    </row>
+    <row r="790" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F790" s="2"/>
+      <c r="G790"/>
+      <c r="H790"/>
+      <c r="I790" s="1"/>
+      <c r="J790" s="1"/>
+    </row>
+    <row r="791" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F791" s="2"/>
+      <c r="G791"/>
+      <c r="H791"/>
+      <c r="I791" s="1"/>
+      <c r="J791" s="1"/>
+    </row>
+    <row r="792" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F792" s="2"/>
+      <c r="G792"/>
+      <c r="H792"/>
+      <c r="I792" s="1"/>
+      <c r="J792" s="1"/>
+    </row>
+    <row r="793" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F793" s="2"/>
+      <c r="G793"/>
+      <c r="H793"/>
+      <c r="I793" s="1"/>
+      <c r="J793" s="1"/>
+    </row>
+    <row r="794" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F794" s="2"/>
+      <c r="G794"/>
+      <c r="H794"/>
+      <c r="I794" s="1"/>
+      <c r="J794" s="1"/>
+    </row>
+    <row r="795" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F795" s="2"/>
+      <c r="G795"/>
+      <c r="H795"/>
+      <c r="I795" s="1"/>
+      <c r="J795" s="1"/>
+    </row>
+    <row r="796" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F796" s="2"/>
+      <c r="G796"/>
+      <c r="H796"/>
+      <c r="I796" s="1"/>
+      <c r="J796" s="1"/>
+    </row>
+    <row r="797" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F797" s="2"/>
+      <c r="G797"/>
+      <c r="H797"/>
+      <c r="I797" s="1"/>
+      <c r="J797" s="1"/>
+    </row>
+    <row r="798" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F798" s="2"/>
+      <c r="G798"/>
+      <c r="H798"/>
+      <c r="I798" s="1"/>
+      <c r="J798" s="1"/>
+    </row>
+    <row r="799" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F799" s="2"/>
+      <c r="G799"/>
+      <c r="H799"/>
+      <c r="I799" s="1"/>
+      <c r="J799" s="1"/>
+    </row>
+    <row r="800" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F800" s="2"/>
+      <c r="G800"/>
+      <c r="H800"/>
+      <c r="I800" s="1"/>
+      <c r="J800" s="1"/>
+    </row>
+    <row r="801" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F801" s="2"/>
+      <c r="G801"/>
+      <c r="H801"/>
+      <c r="I801" s="1"/>
+      <c r="J801" s="1"/>
+    </row>
+    <row r="802" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F802" s="2"/>
+      <c r="G802"/>
+      <c r="H802"/>
+      <c r="I802" s="1"/>
+      <c r="J802" s="1"/>
+    </row>
+    <row r="803" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F803" s="2"/>
+      <c r="G803"/>
+      <c r="H803"/>
+      <c r="I803" s="1"/>
+      <c r="J803" s="1"/>
+    </row>
+    <row r="804" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F804" s="2"/>
+      <c r="G804"/>
+      <c r="H804"/>
+      <c r="I804" s="1"/>
+      <c r="J804" s="1"/>
+    </row>
+    <row r="805" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F805" s="2"/>
+      <c r="G805"/>
+      <c r="H805"/>
+      <c r="I805" s="1"/>
+      <c r="J805" s="1"/>
+    </row>
+    <row r="806" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F806" s="2"/>
+      <c r="G806"/>
+      <c r="H806"/>
+      <c r="I806" s="1"/>
+      <c r="J806" s="1"/>
+    </row>
+    <row r="807" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F807" s="2"/>
+      <c r="G807"/>
+      <c r="H807"/>
+      <c r="I807" s="1"/>
+      <c r="J807" s="1"/>
+    </row>
+    <row r="808" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F808" s="2"/>
+      <c r="G808"/>
+      <c r="H808"/>
+      <c r="I808" s="1"/>
+      <c r="J808" s="1"/>
+    </row>
+    <row r="809" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F809" s="2"/>
+      <c r="G809"/>
+      <c r="H809"/>
+      <c r="I809" s="1"/>
+      <c r="J809" s="1"/>
+    </row>
+    <row r="810" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F810" s="2"/>
+      <c r="G810"/>
+      <c r="H810"/>
+      <c r="I810" s="1"/>
+      <c r="J810" s="1"/>
+    </row>
+    <row r="811" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F811" s="2"/>
+      <c r="G811"/>
+      <c r="H811"/>
+      <c r="I811" s="1"/>
+      <c r="J811" s="1"/>
+    </row>
+    <row r="812" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F812" s="2"/>
+      <c r="G812"/>
+      <c r="H812"/>
+      <c r="I812" s="1"/>
+      <c r="J812" s="1"/>
+    </row>
+    <row r="813" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F813" s="2"/>
+      <c r="G813"/>
+      <c r="H813"/>
+      <c r="I813" s="1"/>
+      <c r="J813" s="1"/>
+    </row>
+    <row r="814" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F814" s="2"/>
+      <c r="G814"/>
+      <c r="H814"/>
+      <c r="I814" s="1"/>
+      <c r="J814" s="1"/>
+    </row>
+    <row r="815" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F815" s="2"/>
+      <c r="G815"/>
+      <c r="H815"/>
+      <c r="I815" s="1"/>
+      <c r="J815" s="1"/>
+    </row>
+    <row r="816" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F816" s="2"/>
+      <c r="G816"/>
+      <c r="H816"/>
+      <c r="I816" s="1"/>
+      <c r="J816" s="1"/>
+    </row>
+    <row r="817" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F817" s="2"/>
+      <c r="G817"/>
+      <c r="H817"/>
+      <c r="I817" s="1"/>
+      <c r="J817" s="1"/>
+    </row>
+    <row r="818" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F818" s="2"/>
+      <c r="G818"/>
+      <c r="H818"/>
+      <c r="I818" s="1"/>
+      <c r="J818" s="1"/>
+    </row>
+    <row r="819" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F819" s="2"/>
+      <c r="G819"/>
+      <c r="H819"/>
+      <c r="I819" s="1"/>
+      <c r="J819" s="1"/>
+    </row>
+    <row r="820" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F820" s="2"/>
+      <c r="G820"/>
+      <c r="H820"/>
+      <c r="I820" s="1"/>
+      <c r="J820" s="1"/>
+    </row>
+    <row r="821" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F821" s="2"/>
+      <c r="G821"/>
+      <c r="H821"/>
+      <c r="I821" s="1"/>
+      <c r="J821" s="1"/>
+    </row>
+    <row r="822" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F822" s="2"/>
+      <c r="G822"/>
+      <c r="H822"/>
+      <c r="I822" s="1"/>
+      <c r="J822" s="1"/>
+    </row>
+    <row r="823" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F823" s="2"/>
+      <c r="G823"/>
+      <c r="H823"/>
+      <c r="I823" s="1"/>
+      <c r="J823" s="1"/>
+    </row>
+    <row r="824" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F824" s="2"/>
+      <c r="G824"/>
+      <c r="H824"/>
+      <c r="I824" s="1"/>
+      <c r="J824" s="1"/>
+    </row>
+    <row r="825" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F825" s="2"/>
+      <c r="G825"/>
+      <c r="H825"/>
+      <c r="I825" s="1"/>
+      <c r="J825" s="1"/>
+    </row>
+    <row r="826" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F826" s="2"/>
+      <c r="G826"/>
+      <c r="H826"/>
+      <c r="I826" s="1"/>
+      <c r="J826" s="1"/>
+    </row>
+    <row r="827" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F827" s="2"/>
+      <c r="G827"/>
+      <c r="H827"/>
+      <c r="I827" s="1"/>
+      <c r="J827" s="1"/>
+    </row>
+    <row r="828" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F828" s="2"/>
+      <c r="G828"/>
+      <c r="H828"/>
+      <c r="I828" s="1"/>
+      <c r="J828" s="1"/>
+    </row>
+    <row r="829" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F829" s="2"/>
+      <c r="G829"/>
+      <c r="H829"/>
+      <c r="I829" s="1"/>
+      <c r="J829" s="1"/>
+    </row>
+    <row r="830" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F830" s="2"/>
+      <c r="G830"/>
+      <c r="H830"/>
+      <c r="I830" s="1"/>
+      <c r="J830" s="1"/>
+    </row>
+    <row r="831" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F831" s="2"/>
+      <c r="G831"/>
+      <c r="H831"/>
+      <c r="I831" s="1"/>
+      <c r="J831" s="1"/>
+    </row>
+    <row r="832" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F832" s="2"/>
+      <c r="G832"/>
+      <c r="H832"/>
+      <c r="I832" s="1"/>
+      <c r="J832" s="1"/>
+    </row>
+    <row r="833" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F833" s="2"/>
+      <c r="G833"/>
+      <c r="H833"/>
+      <c r="I833" s="1"/>
+      <c r="J833" s="1"/>
+    </row>
+    <row r="834" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F834" s="2"/>
+      <c r="G834"/>
+      <c r="H834"/>
+      <c r="I834" s="1"/>
+      <c r="J834" s="1"/>
+    </row>
+    <row r="835" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F835" s="2"/>
+      <c r="G835"/>
+      <c r="H835"/>
+      <c r="I835" s="1"/>
+      <c r="J835" s="1"/>
+    </row>
+    <row r="836" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F836" s="2"/>
+      <c r="G836"/>
+      <c r="H836"/>
+      <c r="I836" s="1"/>
+      <c r="J836" s="1"/>
+    </row>
+    <row r="837" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F837" s="2"/>
+      <c r="G837"/>
+      <c r="H837"/>
+      <c r="I837" s="1"/>
+      <c r="J837" s="1"/>
+    </row>
+    <row r="838" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F838" s="2"/>
+      <c r="G838"/>
+      <c r="H838"/>
+      <c r="I838" s="1"/>
+      <c r="J838" s="1"/>
+    </row>
+    <row r="839" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F839" s="2"/>
+      <c r="G839"/>
+      <c r="H839"/>
+      <c r="I839" s="1"/>
+      <c r="J839" s="1"/>
+    </row>
+    <row r="840" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F840" s="2"/>
+      <c r="G840"/>
+      <c r="H840"/>
+      <c r="I840" s="1"/>
+      <c r="J840" s="1"/>
+    </row>
+    <row r="841" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F841" s="2"/>
+      <c r="G841"/>
+      <c r="H841"/>
+      <c r="I841" s="1"/>
+      <c r="J841" s="1"/>
+    </row>
+    <row r="842" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F842" s="2"/>
+      <c r="G842"/>
+      <c r="H842"/>
+      <c r="I842" s="1"/>
+      <c r="J842" s="1"/>
+    </row>
+    <row r="843" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F843" s="2"/>
+      <c r="G843"/>
+      <c r="H843"/>
+      <c r="I843" s="1"/>
+      <c r="J843" s="1"/>
+    </row>
+    <row r="844" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F844" s="2"/>
+      <c r="G844"/>
+      <c r="H844"/>
+      <c r="I844" s="1"/>
+      <c r="J844" s="1"/>
+    </row>
+    <row r="845" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F845" s="2"/>
+      <c r="G845"/>
+      <c r="H845"/>
+      <c r="I845" s="1"/>
+      <c r="J845" s="1"/>
+    </row>
+    <row r="846" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F846" s="2"/>
+      <c r="G846"/>
+      <c r="H846"/>
+      <c r="I846" s="1"/>
+      <c r="J846" s="1"/>
+    </row>
+    <row r="847" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F847" s="2"/>
+      <c r="G847"/>
+      <c r="H847"/>
+      <c r="I847" s="1"/>
+      <c r="J847" s="1"/>
+    </row>
+    <row r="848" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F848" s="2"/>
+      <c r="G848"/>
+      <c r="H848"/>
+      <c r="I848" s="1"/>
+      <c r="J848" s="1"/>
+    </row>
+    <row r="849" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F849" s="2"/>
+      <c r="G849"/>
+      <c r="H849"/>
+      <c r="I849" s="1"/>
+      <c r="J849" s="1"/>
+    </row>
+    <row r="850" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F850" s="2"/>
+      <c r="G850"/>
+      <c r="H850"/>
+      <c r="I850" s="1"/>
+      <c r="J850" s="1"/>
+    </row>
+    <row r="851" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F851" s="2"/>
+      <c r="G851"/>
+      <c r="H851"/>
+      <c r="I851" s="1"/>
+      <c r="J851" s="1"/>
+    </row>
+    <row r="852" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F852" s="2"/>
+      <c r="G852"/>
+      <c r="H852"/>
+      <c r="I852" s="1"/>
+      <c r="J852" s="1"/>
+    </row>
+    <row r="853" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F853" s="2"/>
+      <c r="G853"/>
+      <c r="H853"/>
+      <c r="I853" s="1"/>
+      <c r="J853" s="1"/>
+    </row>
+    <row r="854" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F854" s="2"/>
+      <c r="G854"/>
+      <c r="H854"/>
+      <c r="I854" s="1"/>
+      <c r="J854" s="1"/>
+    </row>
+    <row r="855" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F855" s="2"/>
+      <c r="G855"/>
+      <c r="H855"/>
+      <c r="I855" s="1"/>
+      <c r="J855" s="1"/>
+    </row>
+    <row r="856" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F856" s="2"/>
+      <c r="G856"/>
+      <c r="H856"/>
+      <c r="I856" s="1"/>
+      <c r="J856" s="1"/>
+    </row>
+    <row r="857" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F857" s="2"/>
+      <c r="G857"/>
+      <c r="H857"/>
+      <c r="I857" s="1"/>
+      <c r="J857" s="1"/>
+    </row>
+    <row r="858" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F858" s="2"/>
+      <c r="G858"/>
+      <c r="H858"/>
+      <c r="I858" s="1"/>
+      <c r="J858" s="1"/>
+    </row>
+    <row r="859" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F859" s="2"/>
+      <c r="G859"/>
+      <c r="H859"/>
+      <c r="I859" s="1"/>
+      <c r="J859" s="1"/>
+    </row>
+    <row r="860" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F860" s="2"/>
+      <c r="G860"/>
+      <c r="H860"/>
+      <c r="I860" s="1"/>
+      <c r="J860" s="1"/>
+    </row>
+    <row r="861" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F861" s="2"/>
+      <c r="G861"/>
+      <c r="H861"/>
+      <c r="I861" s="1"/>
+      <c r="J861" s="1"/>
+    </row>
+    <row r="862" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F862" s="2"/>
+      <c r="G862"/>
+      <c r="H862"/>
+      <c r="I862" s="1"/>
+      <c r="J862" s="1"/>
+    </row>
+    <row r="863" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F863" s="2"/>
+      <c r="G863"/>
+      <c r="H863"/>
+      <c r="I863" s="1"/>
+      <c r="J863" s="1"/>
+    </row>
+    <row r="864" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F864" s="2"/>
+      <c r="G864"/>
+      <c r="H864"/>
+      <c r="I864" s="1"/>
+      <c r="J864" s="1"/>
+    </row>
+    <row r="865" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F865" s="2"/>
+      <c r="G865"/>
+      <c r="H865"/>
+      <c r="I865" s="1"/>
+      <c r="J865" s="1"/>
+    </row>
+    <row r="866" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F866" s="2"/>
+      <c r="G866"/>
+      <c r="H866"/>
+      <c r="I866" s="1"/>
+      <c r="J866" s="1"/>
+    </row>
+    <row r="867" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F867" s="2"/>
+      <c r="G867"/>
+      <c r="H867"/>
+      <c r="I867" s="1"/>
+      <c r="J867" s="1"/>
+    </row>
+    <row r="868" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F868" s="2"/>
+      <c r="G868"/>
+      <c r="H868"/>
+      <c r="I868" s="1"/>
+      <c r="J868" s="1"/>
+    </row>
+    <row r="869" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F869" s="2"/>
+      <c r="G869"/>
+      <c r="H869"/>
+      <c r="I869" s="1"/>
+      <c r="J869" s="1"/>
+    </row>
+    <row r="870" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F870" s="2"/>
+      <c r="G870"/>
+      <c r="H870"/>
+      <c r="I870" s="1"/>
+      <c r="J870" s="1"/>
+    </row>
+    <row r="871" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F871" s="2"/>
+      <c r="G871"/>
+      <c r="H871"/>
+      <c r="I871" s="1"/>
+      <c r="J871" s="1"/>
+    </row>
+    <row r="872" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F872" s="2"/>
+      <c r="G872"/>
+      <c r="H872"/>
+      <c r="I872" s="1"/>
+      <c r="J872" s="1"/>
+    </row>
+    <row r="873" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F873" s="2"/>
+      <c r="G873"/>
+      <c r="H873"/>
+      <c r="I873" s="1"/>
+      <c r="J873" s="1"/>
+    </row>
+    <row r="874" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F874" s="2"/>
+      <c r="G874"/>
+      <c r="H874"/>
+      <c r="I874" s="1"/>
+      <c r="J874" s="1"/>
+    </row>
+    <row r="875" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F875" s="2"/>
+      <c r="G875"/>
+      <c r="H875"/>
+      <c r="I875" s="1"/>
+      <c r="J875" s="1"/>
+    </row>
+    <row r="876" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F876" s="2"/>
+      <c r="G876"/>
+      <c r="H876"/>
+      <c r="I876" s="1"/>
+      <c r="J876" s="1"/>
+    </row>
+    <row r="877" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F877" s="2"/>
+      <c r="G877"/>
+      <c r="H877"/>
+      <c r="I877" s="1"/>
+      <c r="J877" s="1"/>
+    </row>
+    <row r="878" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F878" s="2"/>
+      <c r="G878"/>
+      <c r="H878"/>
+      <c r="I878" s="1"/>
+      <c r="J878" s="1"/>
+    </row>
+    <row r="879" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F879" s="2"/>
+      <c r="G879"/>
+      <c r="H879"/>
+      <c r="I879" s="1"/>
+      <c r="J879" s="1"/>
+    </row>
+    <row r="880" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F880" s="2"/>
+      <c r="G880"/>
+      <c r="H880"/>
+      <c r="I880" s="1"/>
+      <c r="J880" s="1"/>
+    </row>
+    <row r="881" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F881" s="2"/>
+      <c r="G881"/>
+      <c r="H881"/>
+      <c r="I881" s="1"/>
+      <c r="J881" s="1"/>
+    </row>
+    <row r="882" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F882" s="2"/>
+      <c r="G882"/>
+      <c r="H882"/>
+      <c r="I882" s="1"/>
+      <c r="J882" s="1"/>
+    </row>
+    <row r="883" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F883" s="2"/>
+      <c r="G883"/>
+      <c r="H883"/>
+      <c r="I883" s="1"/>
+      <c r="J883" s="1"/>
+    </row>
+    <row r="884" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F884" s="2"/>
+      <c r="G884"/>
+      <c r="H884"/>
+      <c r="I884" s="1"/>
+      <c r="J884" s="1"/>
+    </row>
+    <row r="885" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F885" s="2"/>
+      <c r="G885"/>
+      <c r="H885"/>
+      <c r="I885" s="1"/>
+      <c r="J885" s="1"/>
+    </row>
+    <row r="886" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F886" s="2"/>
+      <c r="G886"/>
+      <c r="H886"/>
+      <c r="I886" s="1"/>
+      <c r="J886" s="1"/>
+    </row>
+    <row r="887" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F887" s="2"/>
+      <c r="G887"/>
+      <c r="H887"/>
+      <c r="I887" s="1"/>
+      <c r="J887" s="1"/>
+    </row>
+    <row r="888" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F888" s="2"/>
+      <c r="G888"/>
+      <c r="H888"/>
+      <c r="I888" s="1"/>
+      <c r="J888" s="1"/>
+    </row>
+    <row r="889" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F889" s="2"/>
+      <c r="G889"/>
+      <c r="H889"/>
+      <c r="I889" s="1"/>
+      <c r="J889" s="1"/>
+    </row>
+    <row r="890" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F890" s="2"/>
+      <c r="G890"/>
+      <c r="H890"/>
+      <c r="I890" s="1"/>
+      <c r="J890" s="1"/>
+    </row>
+    <row r="891" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F891" s="2"/>
+      <c r="G891"/>
+      <c r="H891"/>
+      <c r="I891" s="1"/>
+      <c r="J891" s="1"/>
+    </row>
+    <row r="892" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F892" s="2"/>
+      <c r="G892"/>
+      <c r="H892"/>
+      <c r="I892" s="1"/>
+      <c r="J892" s="1"/>
+    </row>
+    <row r="893" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F893" s="2"/>
+      <c r="G893"/>
+      <c r="H893"/>
+      <c r="I893" s="1"/>
+      <c r="J893" s="1"/>
+    </row>
+    <row r="894" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F894" s="2"/>
+      <c r="G894"/>
+      <c r="H894"/>
+      <c r="I894" s="1"/>
+      <c r="J894" s="1"/>
+    </row>
+    <row r="895" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F895" s="2"/>
+      <c r="G895"/>
+      <c r="H895"/>
+      <c r="I895" s="1"/>
+      <c r="J895" s="1"/>
+    </row>
+    <row r="896" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F896" s="2"/>
+      <c r="G896"/>
+      <c r="H896"/>
+      <c r="I896" s="1"/>
+      <c r="J896" s="1"/>
+    </row>
+    <row r="897" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F897" s="2"/>
+      <c r="G897"/>
+      <c r="H897"/>
+      <c r="I897" s="1"/>
+      <c r="J897" s="1"/>
+    </row>
+    <row r="898" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F898" s="2"/>
+      <c r="G898"/>
+      <c r="H898"/>
+      <c r="I898" s="1"/>
+      <c r="J898" s="1"/>
+    </row>
+    <row r="899" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F899" s="2"/>
+      <c r="G899"/>
+      <c r="H899"/>
+      <c r="I899" s="1"/>
+      <c r="J899" s="1"/>
+    </row>
+    <row r="900" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F900" s="2"/>
+      <c r="G900"/>
+      <c r="H900"/>
+      <c r="I900" s="1"/>
+      <c r="J900" s="1"/>
+    </row>
+    <row r="901" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F901" s="2"/>
+      <c r="G901"/>
+      <c r="H901"/>
+      <c r="I901" s="1"/>
+      <c r="J901" s="1"/>
+    </row>
+    <row r="902" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F902" s="2"/>
+      <c r="G902"/>
+      <c r="H902"/>
+      <c r="I902" s="1"/>
+      <c r="J902" s="1"/>
+    </row>
+    <row r="903" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F903" s="2"/>
+      <c r="G903"/>
+      <c r="H903"/>
+      <c r="I903" s="1"/>
+      <c r="J903" s="1"/>
+    </row>
+    <row r="904" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F904" s="2"/>
+      <c r="G904"/>
+      <c r="H904"/>
+      <c r="I904" s="1"/>
+      <c r="J904" s="1"/>
+    </row>
+    <row r="905" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F905" s="2"/>
+      <c r="G905"/>
+      <c r="H905"/>
+      <c r="I905" s="1"/>
+      <c r="J905" s="1"/>
+    </row>
+    <row r="906" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F906" s="2"/>
+      <c r="G906"/>
+      <c r="H906"/>
+      <c r="I906" s="1"/>
+      <c r="J906" s="1"/>
+    </row>
+    <row r="907" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F907" s="2"/>
+      <c r="G907"/>
+      <c r="H907"/>
+      <c r="I907" s="1"/>
+      <c r="J907" s="1"/>
+    </row>
+    <row r="908" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F908" s="2"/>
+      <c r="G908"/>
+      <c r="H908"/>
+      <c r="I908" s="1"/>
+      <c r="J908" s="1"/>
+    </row>
+    <row r="909" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F909" s="2"/>
+      <c r="G909"/>
+      <c r="H909"/>
+      <c r="I909" s="1"/>
+      <c r="J909" s="1"/>
+    </row>
+    <row r="910" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F910" s="2"/>
+      <c r="G910"/>
+      <c r="H910"/>
+      <c r="I910" s="1"/>
+      <c r="J910" s="1"/>
+    </row>
+    <row r="911" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F911" s="2"/>
+      <c r="G911"/>
+      <c r="H911"/>
+      <c r="I911" s="1"/>
+      <c r="J911" s="1"/>
+    </row>
+    <row r="912" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F912" s="2"/>
+      <c r="G912"/>
+      <c r="H912"/>
+      <c r="I912" s="1"/>
+      <c r="J912" s="1"/>
+    </row>
+    <row r="913" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F913" s="2"/>
+      <c r="G913"/>
+      <c r="H913"/>
+      <c r="I913" s="1"/>
+      <c r="J913" s="1"/>
+    </row>
+    <row r="914" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F914" s="2"/>
+      <c r="G914"/>
+      <c r="H914"/>
+      <c r="I914" s="1"/>
+      <c r="J914" s="1"/>
+    </row>
+    <row r="915" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F915" s="2"/>
+      <c r="G915"/>
+      <c r="H915"/>
+      <c r="I915" s="1"/>
+      <c r="J915" s="1"/>
+    </row>
+    <row r="916" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F916" s="2"/>
+      <c r="G916"/>
+      <c r="H916"/>
+      <c r="I916" s="1"/>
+      <c r="J916" s="1"/>
+    </row>
+    <row r="917" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F917" s="2"/>
+      <c r="G917"/>
+      <c r="H917"/>
+      <c r="I917" s="1"/>
+      <c r="J917" s="1"/>
+    </row>
+    <row r="918" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F918" s="2"/>
+      <c r="G918"/>
+      <c r="H918"/>
+      <c r="I918" s="1"/>
+      <c r="J918" s="1"/>
+    </row>
+    <row r="919" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F919" s="2"/>
+      <c r="G919"/>
+      <c r="H919"/>
+      <c r="I919" s="1"/>
+      <c r="J919" s="1"/>
+    </row>
+    <row r="920" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F920" s="2"/>
+      <c r="G920"/>
+      <c r="H920"/>
+      <c r="I920" s="1"/>
+      <c r="J920" s="1"/>
+    </row>
+    <row r="921" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F921" s="2"/>
+      <c r="G921"/>
+      <c r="H921"/>
+      <c r="I921" s="1"/>
+      <c r="J921" s="1"/>
+    </row>
+    <row r="922" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F922" s="2"/>
+      <c r="G922"/>
+      <c r="H922"/>
+      <c r="I922" s="1"/>
+      <c r="J922" s="1"/>
+    </row>
+    <row r="923" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F923" s="2"/>
+      <c r="G923"/>
+      <c r="H923"/>
+      <c r="I923" s="1"/>
+      <c r="J923" s="1"/>
+    </row>
+    <row r="924" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F924" s="2"/>
+      <c r="G924"/>
+      <c r="H924"/>
+      <c r="I924" s="1"/>
+      <c r="J924" s="1"/>
+    </row>
+    <row r="925" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F925" s="2"/>
+      <c r="G925"/>
+      <c r="H925"/>
+      <c r="I925" s="1"/>
+      <c r="J925" s="1"/>
+    </row>
+    <row r="926" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F926" s="2"/>
+      <c r="G926"/>
+      <c r="H926"/>
+      <c r="I926" s="1"/>
+      <c r="J926" s="1"/>
+    </row>
+    <row r="927" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F927" s="2"/>
+      <c r="G927"/>
+      <c r="H927"/>
+      <c r="I927" s="1"/>
+      <c r="J927" s="1"/>
+    </row>
+    <row r="928" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F928" s="2"/>
+      <c r="G928"/>
+      <c r="H928"/>
+      <c r="I928" s="1"/>
+      <c r="J928" s="1"/>
+    </row>
+    <row r="929" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F929" s="2"/>
+      <c r="G929"/>
+      <c r="H929"/>
+      <c r="I929" s="1"/>
+      <c r="J929" s="1"/>
+    </row>
+    <row r="930" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F930" s="2"/>
+      <c r="G930"/>
+      <c r="H930"/>
+      <c r="I930" s="1"/>
+      <c r="J930" s="1"/>
+    </row>
+    <row r="931" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F931" s="2"/>
+      <c r="G931"/>
+      <c r="H931"/>
+      <c r="I931" s="1"/>
+      <c r="J931" s="1"/>
+    </row>
+    <row r="932" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F932" s="2"/>
+      <c r="G932"/>
+      <c r="H932"/>
+      <c r="I932" s="1"/>
+      <c r="J932" s="1"/>
+    </row>
+    <row r="933" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F933" s="2"/>
+      <c r="G933"/>
+      <c r="H933"/>
+      <c r="I933" s="1"/>
+      <c r="J933" s="1"/>
+    </row>
+    <row r="934" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F934" s="2"/>
+      <c r="G934"/>
+      <c r="H934"/>
+      <c r="I934" s="1"/>
+      <c r="J934" s="1"/>
+    </row>
+    <row r="935" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F935" s="2"/>
+      <c r="G935"/>
+      <c r="H935"/>
+      <c r="I935" s="1"/>
+      <c r="J935" s="1"/>
+    </row>
+    <row r="936" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F936" s="2"/>
+      <c r="G936"/>
+      <c r="H936"/>
+      <c r="I936" s="1"/>
+      <c r="J936" s="1"/>
+    </row>
+    <row r="937" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F937" s="2"/>
+      <c r="G937"/>
+      <c r="H937"/>
+      <c r="I937" s="1"/>
+      <c r="J937" s="1"/>
+    </row>
+    <row r="938" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F938" s="2"/>
+      <c r="G938"/>
+      <c r="H938"/>
+      <c r="I938" s="1"/>
+      <c r="J938" s="1"/>
+    </row>
+    <row r="939" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F939" s="2"/>
+      <c r="G939"/>
+      <c r="H939"/>
+      <c r="I939" s="1"/>
+      <c r="J939" s="1"/>
+    </row>
+    <row r="940" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F940" s="2"/>
+      <c r="G940"/>
+      <c r="H940"/>
+      <c r="I940" s="1"/>
+      <c r="J940" s="1"/>
+    </row>
+    <row r="941" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F941" s="2"/>
+      <c r="G941"/>
+      <c r="H941"/>
+      <c r="I941" s="1"/>
+      <c r="J941" s="1"/>
+    </row>
+    <row r="942" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F942" s="2"/>
+      <c r="G942"/>
+      <c r="H942"/>
+      <c r="I942" s="1"/>
+      <c r="J942" s="1"/>
+    </row>
+    <row r="943" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F943" s="2"/>
+      <c r="G943"/>
+      <c r="H943"/>
+      <c r="I943" s="1"/>
+      <c r="J943" s="1"/>
+    </row>
+    <row r="944" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F944" s="2"/>
+      <c r="G944"/>
+      <c r="H944"/>
+      <c r="I944" s="1"/>
+      <c r="J944" s="1"/>
+    </row>
+    <row r="945" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F945" s="2"/>
+      <c r="G945"/>
+      <c r="H945"/>
+      <c r="I945" s="1"/>
+      <c r="J945" s="1"/>
+    </row>
+    <row r="946" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F946" s="2"/>
+      <c r="G946"/>
+      <c r="H946"/>
+      <c r="I946" s="1"/>
+      <c r="J946" s="1"/>
+    </row>
+    <row r="947" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F947" s="2"/>
+      <c r="G947"/>
+      <c r="H947"/>
+      <c r="I947" s="1"/>
+      <c r="J947" s="1"/>
+    </row>
+    <row r="948" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F948" s="2"/>
+      <c r="G948"/>
+      <c r="H948"/>
+      <c r="I948" s="1"/>
+      <c r="J948" s="1"/>
+    </row>
+    <row r="949" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F949" s="2"/>
+      <c r="G949"/>
+      <c r="H949"/>
+      <c r="I949" s="1"/>
+      <c r="J949" s="1"/>
+    </row>
+    <row r="950" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F950" s="2"/>
+      <c r="G950"/>
+      <c r="H950"/>
+      <c r="I950" s="1"/>
+      <c r="J950" s="1"/>
+    </row>
+    <row r="951" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F951" s="2"/>
+      <c r="G951"/>
+      <c r="H951"/>
+      <c r="I951" s="1"/>
+      <c r="J951" s="1"/>
+    </row>
+    <row r="952" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F952" s="2"/>
+      <c r="G952"/>
+      <c r="H952"/>
+      <c r="I952" s="1"/>
+      <c r="J952" s="1"/>
+    </row>
+    <row r="953" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F953" s="2"/>
+      <c r="G953"/>
+      <c r="H953"/>
+      <c r="I953" s="1"/>
+      <c r="J953" s="1"/>
+    </row>
+    <row r="954" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F954" s="2"/>
+      <c r="G954"/>
+      <c r="H954"/>
+      <c r="I954" s="1"/>
+      <c r="J954" s="1"/>
+    </row>
+    <row r="955" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F955" s="2"/>
+      <c r="G955"/>
+      <c r="H955"/>
+      <c r="I955" s="1"/>
+      <c r="J955" s="1"/>
+    </row>
+    <row r="956" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F956" s="2"/>
+      <c r="G956"/>
+      <c r="H956"/>
+      <c r="I956" s="1"/>
+      <c r="J956" s="1"/>
+    </row>
+    <row r="957" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F957" s="2"/>
+      <c r="G957"/>
+      <c r="H957"/>
+      <c r="I957" s="1"/>
+      <c r="J957" s="1"/>
+    </row>
+    <row r="958" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F958" s="2"/>
+      <c r="G958"/>
+      <c r="H958"/>
+      <c r="I958" s="1"/>
+      <c r="J958" s="1"/>
+    </row>
+    <row r="959" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F959" s="2"/>
+      <c r="G959"/>
+      <c r="H959"/>
+      <c r="I959" s="1"/>
+      <c r="J959" s="1"/>
+    </row>
+    <row r="960" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F960" s="2"/>
+      <c r="G960"/>
+      <c r="H960"/>
+      <c r="I960" s="1"/>
+      <c r="J960" s="1"/>
+    </row>
+    <row r="961" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F961" s="2"/>
+      <c r="G961"/>
+      <c r="H961"/>
+      <c r="I961" s="1"/>
+      <c r="J961" s="1"/>
+    </row>
+    <row r="962" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F962" s="2"/>
+      <c r="G962"/>
+      <c r="H962"/>
+      <c r="I962" s="1"/>
+      <c r="J962" s="1"/>
+    </row>
+    <row r="963" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F963" s="2"/>
+      <c r="G963"/>
+      <c r="H963"/>
+      <c r="I963" s="1"/>
+      <c r="J963" s="1"/>
+    </row>
+    <row r="964" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F964" s="2"/>
+      <c r="G964"/>
+      <c r="H964"/>
+      <c r="I964" s="1"/>
+      <c r="J964" s="1"/>
+    </row>
+    <row r="965" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F965" s="2"/>
+      <c r="G965"/>
+      <c r="H965"/>
+      <c r="I965" s="1"/>
+      <c r="J965" s="1"/>
+    </row>
+    <row r="966" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F966" s="2"/>
+      <c r="G966"/>
+      <c r="H966"/>
+      <c r="I966" s="1"/>
+      <c r="J966" s="1"/>
+    </row>
+    <row r="967" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F967" s="2"/>
+      <c r="G967"/>
+      <c r="H967"/>
+      <c r="I967" s="1"/>
+      <c r="J967" s="1"/>
+    </row>
+    <row r="968" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F968" s="2"/>
+      <c r="G968"/>
+      <c r="H968"/>
+      <c r="I968" s="1"/>
+      <c r="J968" s="1"/>
+    </row>
+    <row r="969" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F969" s="2"/>
+      <c r="G969"/>
+      <c r="H969"/>
+      <c r="I969" s="1"/>
+      <c r="J969" s="1"/>
+    </row>
+    <row r="970" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F970" s="2"/>
+      <c r="G970"/>
+      <c r="H970"/>
+      <c r="I970" s="1"/>
+      <c r="J970" s="1"/>
+    </row>
+    <row r="971" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F971" s="2"/>
+      <c r="G971"/>
+      <c r="H971"/>
+      <c r="I971" s="1"/>
+      <c r="J971" s="1"/>
+    </row>
+    <row r="972" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F972" s="2"/>
+      <c r="G972"/>
+      <c r="H972"/>
+      <c r="I972" s="1"/>
+      <c r="J972" s="1"/>
+    </row>
+    <row r="973" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F973" s="2"/>
+      <c r="G973"/>
+      <c r="H973"/>
+      <c r="I973" s="1"/>
+      <c r="J973" s="1"/>
+    </row>
+    <row r="974" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F974" s="2"/>
+      <c r="G974"/>
+      <c r="H974"/>
+      <c r="I974" s="1"/>
+      <c r="J974" s="1"/>
+    </row>
+    <row r="975" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F975" s="2"/>
+      <c r="G975"/>
+      <c r="H975"/>
+      <c r="I975" s="1"/>
+      <c r="J975" s="1"/>
+    </row>
+    <row r="976" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F976" s="2"/>
+      <c r="G976"/>
+      <c r="H976"/>
+      <c r="I976" s="1"/>
+      <c r="J976" s="1"/>
+    </row>
+    <row r="977" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F977" s="2"/>
+      <c r="G977"/>
+      <c r="H977"/>
+      <c r="I977" s="1"/>
+      <c r="J977" s="1"/>
+    </row>
+    <row r="978" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F978" s="2"/>
+      <c r="G978"/>
+      <c r="H978"/>
+      <c r="I978" s="1"/>
+      <c r="J978" s="1"/>
+    </row>
+    <row r="979" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F979" s="2"/>
+      <c r="G979"/>
+      <c r="H979"/>
+      <c r="I979" s="1"/>
+      <c r="J979" s="1"/>
+    </row>
+    <row r="980" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F980" s="2"/>
+      <c r="G980"/>
+      <c r="H980"/>
+      <c r="I980" s="1"/>
+      <c r="J980" s="1"/>
+    </row>
+    <row r="981" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F981" s="2"/>
+      <c r="G981"/>
+      <c r="H981"/>
+      <c r="I981" s="1"/>
+      <c r="J981" s="1"/>
+    </row>
+    <row r="982" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F982" s="2"/>
+      <c r="G982"/>
+      <c r="H982"/>
+      <c r="I982" s="1"/>
+      <c r="J982" s="1"/>
+    </row>
+    <row r="983" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F983" s="2"/>
+      <c r="G983"/>
+      <c r="H983"/>
+      <c r="I983" s="1"/>
+      <c r="J983" s="1"/>
+    </row>
+    <row r="984" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F984" s="2"/>
+      <c r="G984"/>
+      <c r="H984"/>
+      <c r="I984" s="1"/>
+      <c r="J984" s="1"/>
+    </row>
+    <row r="985" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F985" s="2"/>
+      <c r="G985"/>
+      <c r="H985"/>
+      <c r="I985" s="1"/>
+      <c r="J985" s="1"/>
+    </row>
+    <row r="986" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F986" s="2"/>
+      <c r="G986"/>
+      <c r="H986"/>
+      <c r="I986" s="1"/>
+      <c r="J986" s="1"/>
+    </row>
+    <row r="987" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F987" s="2"/>
+      <c r="G987"/>
+      <c r="H987"/>
+      <c r="I987" s="1"/>
+      <c r="J987" s="1"/>
+    </row>
+    <row r="988" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F988" s="2"/>
+      <c r="G988"/>
+      <c r="H988"/>
+      <c r="I988" s="1"/>
+      <c r="J988" s="1"/>
+    </row>
+    <row r="989" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F989" s="2"/>
+      <c r="G989"/>
+      <c r="H989"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+    </row>
+    <row r="990" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F990" s="2"/>
+      <c r="G990"/>
+      <c r="H990"/>
+      <c r="I990" s="1"/>
+      <c r="J990" s="1"/>
+    </row>
+    <row r="991" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F991" s="2"/>
+      <c r="G991"/>
+      <c r="H991"/>
+      <c r="I991" s="1"/>
+      <c r="J991" s="1"/>
+    </row>
+    <row r="992" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F992" s="2"/>
+      <c r="G992"/>
+      <c r="H992"/>
+      <c r="I992" s="1"/>
+      <c r="J992" s="1"/>
+    </row>
+    <row r="993" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F993" s="2"/>
+      <c r="G993"/>
+      <c r="H993"/>
+      <c r="I993" s="1"/>
+      <c r="J993" s="1"/>
+    </row>
+    <row r="994" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F994" s="2"/>
+      <c r="G994"/>
+      <c r="H994"/>
+      <c r="I994" s="1"/>
+      <c r="J994" s="1"/>
+    </row>
+    <row r="995" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F995" s="2"/>
+      <c r="G995"/>
+      <c r="H995"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+    </row>
+    <row r="996" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F996" s="2"/>
+      <c r="G996"/>
+      <c r="H996"/>
+      <c r="I996" s="1"/>
+      <c r="J996" s="1"/>
+    </row>
+    <row r="997" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F997" s="2"/>
+      <c r="G997"/>
+      <c r="H997"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+    </row>
+    <row r="998" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F998" s="2"/>
+      <c r="G998"/>
+      <c r="H998"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+    </row>
+    <row r="999" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F999" s="2"/>
+      <c r="G999"/>
+      <c r="H999"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+    </row>
+    <row r="1000" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F1000" s="2"/>
+      <c r="G1000"/>
+      <c r="H1000"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>